--- a/nop-job/model/nop-job.orm.xlsx
+++ b/nop-job/model/nop-job.orm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy-bak\nop-job\model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-job\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC6CA28-6F35-441B-84BA-2FFBF8E37AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5481390-79F0-4C73-975E-66E742F4C0BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="3" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -259,10 +259,6 @@
   </si>
   <si>
     <t>maven.groupId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>io.nop</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -690,6 +686,10 @@
   </si>
   <si>
     <t>#变量名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>io.github.entropy-cloud</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1277,10 +1277,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -1413,8 +1413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9313AC94-4A2B-4F66-85AD-4A3D79664E62}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1426,7 +1426,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>17</v>
@@ -1443,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1451,32 +1451,32 @@
         <v>56</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1484,54 +1484,54 @@
         <v>57</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>58</v>
+        <v>155</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1713,7 +1713,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
@@ -1730,11 +1730,11 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1745,10 +1745,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>21</v>
@@ -1764,10 +1764,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>21</v>
@@ -1783,7 +1783,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
@@ -1800,7 +1800,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
@@ -1815,7 +1815,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
@@ -1830,7 +1830,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
@@ -1847,7 +1847,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
@@ -1862,7 +1862,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
@@ -1879,13 +1879,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -1973,7 +1973,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49753E9A-158A-4EB9-A449-F2590B12608A}">
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -2001,7 +2001,7 @@
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
       <c r="D1" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
@@ -2025,7 +2025,7 @@
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
       <c r="D2" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
@@ -2034,7 +2034,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J2" s="18"/>
       <c r="K2" s="18"/>
@@ -2136,7 +2136,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -2163,7 +2163,7 @@
         <v>26</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>10</v>
@@ -2180,7 +2180,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>19</v>
@@ -2214,17 +2214,17 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>140</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>141</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="5" t="s">
@@ -2249,14 +2249,14 @@
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="5" t="s">
@@ -2281,14 +2281,14 @@
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>102</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>103</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="5" t="s">
@@ -2313,17 +2313,17 @@
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G12" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>95</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="6" t="s">
@@ -2345,14 +2345,14 @@
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>148</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>149</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="5" t="s">
@@ -2377,14 +2377,14 @@
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>144</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="5"/>
@@ -2407,14 +2407,14 @@
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="5" t="s">
@@ -2426,7 +2426,7 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N15" s="6"/>
       <c r="O15" s="5"/>
@@ -2439,14 +2439,14 @@
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>108</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="5"/>
@@ -2469,14 +2469,14 @@
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>114</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="5"/>
@@ -2497,21 +2497,21 @@
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>126</v>
-      </c>
       <c r="H18" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
@@ -2527,14 +2527,14 @@
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>116</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>117</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="5"/>
@@ -2555,14 +2555,14 @@
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>120</v>
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="5"/>
@@ -2583,14 +2583,14 @@
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>122</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>123</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="5"/>
@@ -2602,7 +2602,7 @@
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
       <c r="O21" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P21" s="1"/>
     </row>
@@ -2613,14 +2613,14 @@
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="5"/>
@@ -2641,14 +2641,14 @@
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G23" s="6" t="s">
         <v>131</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>132</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="5"/>
@@ -2669,21 +2669,21 @@
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="G24" s="6" t="s">
-        <v>135</v>
-      </c>
       <c r="H24" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
@@ -2699,14 +2699,14 @@
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>137</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>138</v>
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="5"/>
@@ -2720,7 +2720,7 @@
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
       <c r="O25" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P25" s="1"/>
     </row>
@@ -2741,7 +2741,7 @@
         <v>29</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>20</v>
@@ -2773,7 +2773,7 @@
         <v>32</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>20</v>
@@ -2807,7 +2807,7 @@
         <v>36</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>20</v>
@@ -2839,7 +2839,7 @@
         <v>40</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>20</v>
@@ -2873,7 +2873,7 @@
         <v>43</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>20</v>
@@ -2905,7 +2905,7 @@
         <v>10</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I31" s="5"/>
       <c r="J31" s="6" t="s">
@@ -2947,7 +2947,7 @@
     </row>
     <row r="36" spans="2:13" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>

--- a/nop-job/model/nop-job.orm.xlsx
+++ b/nop-job/model/nop-job.orm.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-job\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5481390-79F0-4C73-975E-66E742F4C0BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFF40DF-C362-441C-9E32-0A08CA764FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="3" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
     <sheet name="配置" sheetId="3" r:id="rId2"/>
     <sheet name="域定义" sheetId="15" r:id="rId3"/>
-    <sheet name="nop_job_plan" sheetId="1" r:id="rId4"/>
+    <sheet name="字典定义" sheetId="17" r:id="rId4"/>
+    <sheet name="nop_job_definition" sheetId="1" r:id="rId5"/>
+    <sheet name="nop_job_instance" sheetId="16" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="250">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -453,14 +455,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>任务调度计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Job Plan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>JOB_NAME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -489,10 +483,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>job/job-plan-status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CRON_EXPR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -690,6 +680,393 @@
   </si>
   <si>
     <t>io.github.entropy-cloud</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULER_GROUP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scheduler Group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调度器分组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scheduler Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调度器ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULER_EPOCH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scheduler Epoch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调度器世代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调度器加载时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULER_LOAD_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scheduler Load Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOB_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Job Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Job ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEXT_SCHEDULE_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Next Schedule Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下次调度时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>job/job-instance-status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联属性名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to-one</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联中文名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联英文名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pub,ref-pub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nop_job_instance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务实例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Job Instance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERR_MSG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error Message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERR_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>值类型</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文名</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文名</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典项</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>已创建</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATED</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>已暂停</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUSPENDED</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待中</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>WAITING</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTIVATED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPLETED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已超时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXPIRED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已中止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KILLED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待调度</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>未发布</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNPUBLISHED</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>已发布</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUBLISHED</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>已过时</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEPRECATED</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>已归档</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARCHIVED</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>已归档的流程不能新建实例</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>job/job-instance-status</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业实例状态</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Job Instance Status</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>job/job-def-status</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业定义状态</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Job Definition Status</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>过时的作业不推荐使用</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>jobDefinition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Job Definition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NopJobDefinition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jobDefId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOB_DEF_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Job Definition Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务定义ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nop_job_definition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>job/job-def-status</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -697,7 +1074,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -739,8 +1116,29 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="0.79998168889431442"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -771,8 +1169,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9CC2E5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EEDA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -845,6 +1273,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -854,7 +1315,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -891,6 +1352,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -929,6 +1393,147 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1280,7 +1885,7 @@
         <v>95</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -1413,7 +2018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9313AC94-4A2B-4F66-85AD-4A3D79664E62}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1426,7 +2031,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>17</v>
@@ -1451,7 +2056,7 @@
         <v>56</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>62</v>
@@ -1462,7 +2067,7 @@
         <v>73</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>72</v>
@@ -1473,7 +2078,7 @@
         <v>71</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>63</v>
@@ -1484,7 +2089,7 @@
         <v>57</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>64</v>
@@ -1495,7 +2100,7 @@
         <v>58</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>65</v>
@@ -1970,11 +2575,433 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4CD64A5-AB42-4D35-A396-5536329A6B7E}">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="71">
+        <v>1</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1" s="56"/>
+      <c r="D1" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="E1" s="23"/>
+      <c r="F1" s="57" t="s">
+        <v>198</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="72"/>
+      <c r="B2" s="55" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="57" t="s">
+        <v>201</v>
+      </c>
+      <c r="G2" s="58" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="72"/>
+      <c r="B3" s="55" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" s="56"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="23"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="72"/>
+      <c r="B4" s="59" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="72"/>
+      <c r="B5" s="62" t="s">
+        <v>204</v>
+      </c>
+      <c r="C5" s="63" t="s">
+        <v>205</v>
+      </c>
+      <c r="D5" s="63" t="s">
+        <v>197</v>
+      </c>
+      <c r="E5" s="63" t="s">
+        <v>206</v>
+      </c>
+      <c r="F5" s="63" t="s">
+        <v>201</v>
+      </c>
+      <c r="G5" s="63" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="72"/>
+      <c r="B6" s="58">
+        <v>1</v>
+      </c>
+      <c r="C6" s="58">
+        <v>0</v>
+      </c>
+      <c r="D6" s="64" t="s">
+        <v>207</v>
+      </c>
+      <c r="E6" s="64" t="s">
+        <v>208</v>
+      </c>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="72"/>
+      <c r="B7" s="58">
+        <v>2</v>
+      </c>
+      <c r="C7" s="58">
+        <v>10</v>
+      </c>
+      <c r="D7" s="64" t="s">
+        <v>209</v>
+      </c>
+      <c r="E7" s="64" t="s">
+        <v>210</v>
+      </c>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="72"/>
+      <c r="B8" s="58">
+        <v>3</v>
+      </c>
+      <c r="C8" s="58">
+        <v>20</v>
+      </c>
+      <c r="D8" s="64" t="s">
+        <v>211</v>
+      </c>
+      <c r="E8" s="64" t="s">
+        <v>212</v>
+      </c>
+      <c r="F8" s="64"/>
+      <c r="G8" s="68" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="72"/>
+      <c r="B9" s="58">
+        <v>4</v>
+      </c>
+      <c r="C9" s="69">
+        <v>30</v>
+      </c>
+      <c r="D9" s="64" t="s">
+        <v>213</v>
+      </c>
+      <c r="E9" s="64" t="s">
+        <v>214</v>
+      </c>
+      <c r="F9" s="64"/>
+      <c r="G9" s="68"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="72"/>
+      <c r="B10" s="58">
+        <v>5</v>
+      </c>
+      <c r="C10" s="69">
+        <v>40</v>
+      </c>
+      <c r="D10" s="64" t="s">
+        <v>215</v>
+      </c>
+      <c r="E10" s="64" t="s">
+        <v>216</v>
+      </c>
+      <c r="F10" s="64"/>
+      <c r="G10" s="68"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="72"/>
+      <c r="B11" s="58">
+        <v>6</v>
+      </c>
+      <c r="C11" s="69">
+        <v>50</v>
+      </c>
+      <c r="D11" s="64" t="s">
+        <v>217</v>
+      </c>
+      <c r="E11" s="64" t="s">
+        <v>218</v>
+      </c>
+      <c r="F11" s="64"/>
+      <c r="G11" s="68"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="72"/>
+      <c r="B12" s="58">
+        <v>7</v>
+      </c>
+      <c r="C12" s="69">
+        <v>60</v>
+      </c>
+      <c r="D12" s="64" t="s">
+        <v>219</v>
+      </c>
+      <c r="E12" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="F12" s="64"/>
+      <c r="G12" s="68"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="72"/>
+      <c r="B13" s="58">
+        <v>8</v>
+      </c>
+      <c r="C13" s="69">
+        <v>70</v>
+      </c>
+      <c r="D13" s="64" t="s">
+        <v>221</v>
+      </c>
+      <c r="E13" s="64" t="s">
+        <v>222</v>
+      </c>
+      <c r="F13" s="64"/>
+      <c r="G13" s="68"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="72"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="67"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="29">
+        <v>2</v>
+      </c>
+      <c r="B15" s="55" t="s">
+        <v>197</v>
+      </c>
+      <c r="C15" s="56"/>
+      <c r="D15" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="E15" s="23"/>
+      <c r="F15" s="57" t="s">
+        <v>198</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="34"/>
+      <c r="B16" s="55" t="s">
+        <v>200</v>
+      </c>
+      <c r="C16" s="56"/>
+      <c r="D16" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="E16" s="23"/>
+      <c r="F16" s="57" t="s">
+        <v>201</v>
+      </c>
+      <c r="G16" s="58" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="34"/>
+      <c r="B17" s="55" t="s">
+        <v>202</v>
+      </c>
+      <c r="C17" s="56"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="23"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="34"/>
+      <c r="B18" s="59" t="s">
+        <v>203</v>
+      </c>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="61"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="34"/>
+      <c r="B19" s="62" t="s">
+        <v>204</v>
+      </c>
+      <c r="C19" s="63" t="s">
+        <v>205</v>
+      </c>
+      <c r="D19" s="63" t="s">
+        <v>197</v>
+      </c>
+      <c r="E19" s="63" t="s">
+        <v>206</v>
+      </c>
+      <c r="F19" s="63" t="s">
+        <v>201</v>
+      </c>
+      <c r="G19" s="63" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="34"/>
+      <c r="B20" s="58">
+        <v>1</v>
+      </c>
+      <c r="C20" s="58">
+        <v>0</v>
+      </c>
+      <c r="D20" s="64" t="s">
+        <v>224</v>
+      </c>
+      <c r="E20" s="64" t="s">
+        <v>225</v>
+      </c>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="34"/>
+      <c r="B21" s="58">
+        <v>2</v>
+      </c>
+      <c r="C21" s="58">
+        <v>1</v>
+      </c>
+      <c r="D21" s="64" t="s">
+        <v>226</v>
+      </c>
+      <c r="E21" s="64" t="s">
+        <v>227</v>
+      </c>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="34"/>
+      <c r="B22" s="58">
+        <v>3</v>
+      </c>
+      <c r="C22" s="58">
+        <v>2</v>
+      </c>
+      <c r="D22" s="64" t="s">
+        <v>228</v>
+      </c>
+      <c r="E22" s="64" t="s">
+        <v>229</v>
+      </c>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="34"/>
+      <c r="B23" s="58">
+        <v>4</v>
+      </c>
+      <c r="C23" s="58">
+        <v>3</v>
+      </c>
+      <c r="D23" s="64" t="s">
+        <v>230</v>
+      </c>
+      <c r="E23" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="70"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="67"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A15:A24"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="A1:A14"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B14:G14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49753E9A-158A-4EB9-A449-F2590B12608A}">
-  <dimension ref="A1:P36"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1995,132 +3022,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="19"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="20"/>
       <c r="N1" s="11"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="19"/>
+      <c r="I2" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="20"/>
       <c r="N2" s="11"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="19"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="20"/>
       <c r="N3" s="11"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="25"/>
       <c r="N4" s="10"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="22"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="23"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -2214,17 +3241,17 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="5" t="s">
@@ -2249,11 +3276,11 @@
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>91</v>
@@ -2281,14 +3308,14 @@
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="5" t="s">
@@ -2313,11 +3340,11 @@
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>93</v>
@@ -2345,14 +3372,14 @@
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="5" t="s">
@@ -2377,14 +3404,14 @@
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="5"/>
@@ -2407,11 +3434,11 @@
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>92</v>
@@ -2426,7 +3453,7 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="6" t="s">
-        <v>105</v>
+        <v>249</v>
       </c>
       <c r="N15" s="6"/>
       <c r="O15" s="5"/>
@@ -2439,14 +3466,14 @@
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="5"/>
@@ -2469,14 +3496,14 @@
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="5"/>
@@ -2497,14 +3524,14 @@
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>81</v>
@@ -2527,14 +3554,14 @@
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="5"/>
@@ -2555,14 +3582,14 @@
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="5"/>
@@ -2583,14 +3610,14 @@
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="5"/>
@@ -2602,7 +3629,7 @@
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
       <c r="O21" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="P21" s="1"/>
     </row>
@@ -2613,14 +3640,14 @@
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="5"/>
@@ -2641,14 +3668,14 @@
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="5"/>
@@ -2669,14 +3696,14 @@
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>81</v>
@@ -2699,14 +3726,14 @@
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="5"/>
@@ -2720,7 +3747,7 @@
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
       <c r="O25" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P25" s="1"/>
     </row>
@@ -2731,25 +3758,25 @@
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="6" t="s">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="6" t="s">
-        <v>28</v>
+        <v>155</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>76</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="H26" s="6"/>
       <c r="I26" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K26" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="K26" s="5">
+        <v>50</v>
+      </c>
       <c r="L26" s="5"/>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
@@ -2763,18 +3790,16 @@
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="6" t="s">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="6" t="s">
-        <v>31</v>
+        <v>157</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>77</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="H27" s="6"/>
       <c r="I27" s="5" t="s">
         <v>20</v>
       </c>
@@ -2782,7 +3807,7 @@
         <v>21</v>
       </c>
       <c r="K27" s="5">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="L27" s="5"/>
       <c r="M27" s="6"/>
@@ -2797,23 +3822,21 @@
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="6" t="s">
-        <v>34</v>
+        <v>159</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="6" t="s">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>79</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="H28" s="6"/>
       <c r="I28" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
@@ -2829,27 +3852,21 @@
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="6" t="s">
-        <v>38</v>
+        <v>163</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="6" t="s">
-        <v>39</v>
+        <v>164</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="H29" s="6"/>
+      <c r="I29" s="5"/>
       <c r="J29" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K29" s="5">
-        <v>50</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
@@ -2863,23 +3880,23 @@
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="6" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="6" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
@@ -2895,24 +3912,26 @@
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="6" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="6" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="I31" s="5"/>
+        <v>77</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="J31" s="6" t="s">
         <v>21</v>
       </c>
       <c r="K31" s="5">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="L31" s="5"/>
       <c r="M31" s="6"/>
@@ -2921,16 +3940,30 @@
       <c r="P31" s="1"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
+      <c r="A32" s="5">
+        <v>25</v>
+      </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
+      <c r="D32" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
+      <c r="F32" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="6"/>
@@ -2938,32 +3971,148 @@
       <c r="O32" s="5"/>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="2:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B35" s="9" t="s">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
+        <v>26</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K33" s="5">
+        <v>50</v>
+      </c>
+      <c r="L33" s="5"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="1"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
+        <v>27</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="1"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
+        <v>28</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I35" s="5"/>
+      <c r="J35" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K35" s="5">
+        <v>200</v>
+      </c>
+      <c r="L35" s="5"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="1"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="1"/>
+    </row>
+    <row r="37" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B39" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="9"/>
-    </row>
-    <row r="36" spans="2:13" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="12" t="s">
+      <c r="C39" s="9"/>
+    </row>
+    <row r="40" spans="1:16" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B36:M36"/>
+    <mergeCell ref="B40:M40"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="I1:M1"/>
@@ -2981,4 +4130,915 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0AB38BD-C79B-46B9-BBEB-F87063D2EF8F}">
+  <dimension ref="A1:P31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="4.5" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="4.9140625" customWidth="1"/>
+    <col min="6" max="6" width="15.08203125" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="9" max="9" width="4.75" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="6.08203125" customWidth="1"/>
+    <col min="12" max="12" width="7.4140625" customWidth="1"/>
+    <col min="13" max="13" width="9" customWidth="1"/>
+    <col min="14" max="14" width="6.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="18"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="21"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="23"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="5">
+        <v>32</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>2</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="5">
+        <v>32</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>3</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="5">
+        <v>4000</v>
+      </c>
+      <c r="L10" s="5"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>4</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="N11" s="6"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>5</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>6</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="5">
+        <v>200</v>
+      </c>
+      <c r="L13" s="5"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>7</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="5">
+        <v>500</v>
+      </c>
+      <c r="L14" s="5"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>8</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>9</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="5">
+        <v>50</v>
+      </c>
+      <c r="L16" s="5"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>10</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>11</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="5">
+        <v>50</v>
+      </c>
+      <c r="L18" s="5"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>12</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>13</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20" s="5"/>
+      <c r="J20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="5">
+        <v>200</v>
+      </c>
+      <c r="L20" s="5"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="28"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="29">
+        <v>1</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="C24" s="31"/>
+      <c r="D24" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H24" s="21"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="L24" s="33"/>
+      <c r="M24" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="20"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="34"/>
+      <c r="B25" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="31"/>
+      <c r="D25" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="I25" s="22"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="L25" s="33"/>
+      <c r="M25" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="20"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="34"/>
+      <c r="B26" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="C26" s="31"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="20"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="34"/>
+      <c r="B27" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="31"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="L27" s="33"/>
+      <c r="M27" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="20"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="34"/>
+      <c r="B28" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="40"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="34"/>
+      <c r="B29" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="D29" s="42"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="G29" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="H29" s="33"/>
+      <c r="I29" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="J29" s="33"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="45"/>
+      <c r="O29" s="45"/>
+      <c r="P29" s="44"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="34"/>
+      <c r="B30" s="46">
+        <v>1</v>
+      </c>
+      <c r="C30" s="47" t="s">
+        <v>243</v>
+      </c>
+      <c r="D30" s="48"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="47" t="s">
+        <v>186</v>
+      </c>
+      <c r="H30" s="49"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="54"/>
+      <c r="P30" s="53"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="34"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="54"/>
+      <c r="O31" s="54"/>
+      <c r="P31" s="53"/>
+    </row>
+  </sheetData>
+  <mergeCells count="49">
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A23:P23"/>
+    <mergeCell ref="A24:A31"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/nop-job/model/nop-job.orm.xlsx
+++ b/nop-job/model/nop-job.orm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-job\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFF40DF-C362-441C-9E32-0A08CA764FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEEE8EE1-1558-4ECA-8A6F-B473DAC1A63B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="3" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="5" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="257">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -743,18 +743,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NEXT_SCHEDULE_TIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Next Schedule Time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下次调度时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>job/job-instance-status</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1067,6 +1055,46 @@
   </si>
   <si>
     <t>job/job-def-status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULED_EXEC_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scheduled Exec Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXEC_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exec Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调度执行时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际执行时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ONCE_TASK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Once Task</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否只执行一次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1355,6 +1383,96 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1379,21 +1497,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1401,138 +1561,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2180,7 +2208,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2578,400 +2606,409 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4CD64A5-AB42-4D35-A396-5536329A6B7E}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="71">
+      <c r="A1" s="41">
         <v>1</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="E1" s="33"/>
+      <c r="F1" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="42"/>
+      <c r="B2" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="21" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="E2" s="33"/>
+      <c r="F2" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="42"/>
+      <c r="B3" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" s="31"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="33"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="42"/>
+      <c r="B4" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="37"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="42"/>
+      <c r="B5" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="42"/>
+      <c r="B6" s="21">
+        <v>1</v>
+      </c>
+      <c r="C6" s="21">
+        <v>0</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="42"/>
+      <c r="B7" s="21">
+        <v>2</v>
+      </c>
+      <c r="C7" s="21">
+        <v>10</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="42"/>
+      <c r="B8" s="21">
+        <v>3</v>
+      </c>
+      <c r="C8" s="21">
+        <v>20</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="F8" s="24"/>
+      <c r="G8" s="25" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="42"/>
+      <c r="B9" s="21">
+        <v>4</v>
+      </c>
+      <c r="C9" s="26">
+        <v>30</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="F9" s="24"/>
+      <c r="G9" s="25"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="42"/>
+      <c r="B10" s="21">
+        <v>5</v>
+      </c>
+      <c r="C10" s="26">
+        <v>40</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="42"/>
+      <c r="B11" s="21">
+        <v>6</v>
+      </c>
+      <c r="C11" s="26">
+        <v>50</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="F11" s="24"/>
+      <c r="G11" s="25"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="42"/>
+      <c r="B12" s="21">
+        <v>7</v>
+      </c>
+      <c r="C12" s="26">
+        <v>60</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="F12" s="24"/>
+      <c r="G12" s="25"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="42"/>
+      <c r="B13" s="21">
+        <v>8</v>
+      </c>
+      <c r="C13" s="26">
+        <v>70</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="F13" s="24"/>
+      <c r="G13" s="25"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="42"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="40"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="27">
+        <v>2</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="C15" s="31"/>
+      <c r="D15" s="32" t="s">
         <v>233</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="57" t="s">
+      <c r="E15" s="33"/>
+      <c r="F15" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="28"/>
+      <c r="B16" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="C16" s="31"/>
+      <c r="D16" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="E16" s="33"/>
+      <c r="F16" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G16" s="21" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="28"/>
+      <c r="B17" s="30" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="72"/>
-      <c r="B2" s="55" t="s">
+      <c r="C17" s="31"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="33"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="28"/>
+      <c r="B18" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="57" t="s">
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="37"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="28"/>
+      <c r="B19" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="G2" s="58" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="72"/>
-      <c r="B3" s="55" t="s">
+      <c r="C19" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="23"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="72"/>
-      <c r="B4" s="59" t="s">
+      <c r="D19" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="E19" s="23" t="s">
         <v>203</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="61"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="72"/>
-      <c r="B5" s="62" t="s">
-        <v>204</v>
-      </c>
-      <c r="C5" s="63" t="s">
-        <v>205</v>
-      </c>
-      <c r="D5" s="63" t="s">
-        <v>197</v>
-      </c>
-      <c r="E5" s="63" t="s">
-        <v>206</v>
-      </c>
-      <c r="F5" s="63" t="s">
-        <v>201</v>
-      </c>
-      <c r="G5" s="63" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="72"/>
-      <c r="B6" s="58">
+      <c r="F19" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="28"/>
+      <c r="B20" s="21">
         <v>1</v>
       </c>
-      <c r="C6" s="58">
+      <c r="C20" s="21">
         <v>0</v>
       </c>
-      <c r="D6" s="64" t="s">
-        <v>207</v>
-      </c>
-      <c r="E6" s="64" t="s">
-        <v>208</v>
-      </c>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="72"/>
-      <c r="B7" s="58">
+      <c r="D20" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="28"/>
+      <c r="B21" s="21">
         <v>2</v>
       </c>
-      <c r="C7" s="58">
-        <v>10</v>
-      </c>
-      <c r="D7" s="64" t="s">
-        <v>209</v>
-      </c>
-      <c r="E7" s="64" t="s">
-        <v>210</v>
-      </c>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="72"/>
-      <c r="B8" s="58">
+      <c r="C21" s="21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="28"/>
+      <c r="B22" s="21">
         <v>3</v>
       </c>
-      <c r="C8" s="58">
-        <v>20</v>
-      </c>
-      <c r="D8" s="64" t="s">
-        <v>211</v>
-      </c>
-      <c r="E8" s="64" t="s">
-        <v>212</v>
-      </c>
-      <c r="F8" s="64"/>
-      <c r="G8" s="68" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="72"/>
-      <c r="B9" s="58">
+      <c r="C22" s="21">
+        <v>2</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="28"/>
+      <c r="B23" s="21">
         <v>4</v>
       </c>
-      <c r="C9" s="69">
-        <v>30</v>
-      </c>
-      <c r="D9" s="64" t="s">
-        <v>213</v>
-      </c>
-      <c r="E9" s="64" t="s">
-        <v>214</v>
-      </c>
-      <c r="F9" s="64"/>
-      <c r="G9" s="68"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="72"/>
-      <c r="B10" s="58">
-        <v>5</v>
-      </c>
-      <c r="C10" s="69">
-        <v>40</v>
-      </c>
-      <c r="D10" s="64" t="s">
-        <v>215</v>
-      </c>
-      <c r="E10" s="64" t="s">
-        <v>216</v>
-      </c>
-      <c r="F10" s="64"/>
-      <c r="G10" s="68"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="72"/>
-      <c r="B11" s="58">
-        <v>6</v>
-      </c>
-      <c r="C11" s="69">
-        <v>50</v>
-      </c>
-      <c r="D11" s="64" t="s">
-        <v>217</v>
-      </c>
-      <c r="E11" s="64" t="s">
-        <v>218</v>
-      </c>
-      <c r="F11" s="64"/>
-      <c r="G11" s="68"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="72"/>
-      <c r="B12" s="58">
-        <v>7</v>
-      </c>
-      <c r="C12" s="69">
-        <v>60</v>
-      </c>
-      <c r="D12" s="64" t="s">
-        <v>219</v>
-      </c>
-      <c r="E12" s="64" t="s">
-        <v>220</v>
-      </c>
-      <c r="F12" s="64"/>
-      <c r="G12" s="68"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="72"/>
-      <c r="B13" s="58">
-        <v>8</v>
-      </c>
-      <c r="C13" s="69">
-        <v>70</v>
-      </c>
-      <c r="D13" s="64" t="s">
-        <v>221</v>
-      </c>
-      <c r="E13" s="64" t="s">
-        <v>222</v>
-      </c>
-      <c r="F13" s="64"/>
-      <c r="G13" s="68"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="72"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="67"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="29">
-        <v>2</v>
-      </c>
-      <c r="B15" s="55" t="s">
-        <v>197</v>
-      </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="21" t="s">
-        <v>236</v>
-      </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="57" t="s">
-        <v>198</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="34"/>
-      <c r="B16" s="55" t="s">
-        <v>200</v>
-      </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="57" t="s">
-        <v>201</v>
-      </c>
-      <c r="G16" s="58" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="34"/>
-      <c r="B17" s="55" t="s">
-        <v>202</v>
-      </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="23"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="34"/>
-      <c r="B18" s="59" t="s">
-        <v>203</v>
-      </c>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="61"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="34"/>
-      <c r="B19" s="62" t="s">
-        <v>204</v>
-      </c>
-      <c r="C19" s="63" t="s">
-        <v>205</v>
-      </c>
-      <c r="D19" s="63" t="s">
-        <v>197</v>
-      </c>
-      <c r="E19" s="63" t="s">
-        <v>206</v>
-      </c>
-      <c r="F19" s="63" t="s">
-        <v>201</v>
-      </c>
-      <c r="G19" s="63" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="34"/>
-      <c r="B20" s="58">
-        <v>1</v>
-      </c>
-      <c r="C20" s="58">
-        <v>0</v>
-      </c>
-      <c r="D20" s="64" t="s">
-        <v>224</v>
-      </c>
-      <c r="E20" s="64" t="s">
-        <v>225</v>
-      </c>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="34"/>
-      <c r="B21" s="58">
-        <v>2</v>
-      </c>
-      <c r="C21" s="58">
-        <v>1</v>
-      </c>
-      <c r="D21" s="64" t="s">
-        <v>226</v>
-      </c>
-      <c r="E21" s="64" t="s">
+      <c r="C23" s="21">
+        <v>3</v>
+      </c>
+      <c r="D23" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="34"/>
-      <c r="B22" s="58">
-        <v>3</v>
-      </c>
-      <c r="C22" s="58">
-        <v>2</v>
-      </c>
-      <c r="D22" s="64" t="s">
+      <c r="E23" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="E22" s="64" t="s">
+      <c r="F23" s="24"/>
+      <c r="G23" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="34"/>
-      <c r="B23" s="58">
-        <v>4</v>
-      </c>
-      <c r="C23" s="58">
-        <v>3</v>
-      </c>
-      <c r="D23" s="64" t="s">
-        <v>230</v>
-      </c>
-      <c r="E23" s="64" t="s">
-        <v>231</v>
-      </c>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64" t="s">
-        <v>232</v>
-      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="70"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="67"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:A14"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B14:G14"/>
     <mergeCell ref="A15:A24"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:E15"/>
@@ -2981,15 +3018,6 @@
     <mergeCell ref="D17:G17"/>
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="B24:G24"/>
-    <mergeCell ref="A1:A14"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B14:G14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3000,8 +3028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49753E9A-158A-4EB9-A449-F2590B12608A}">
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3022,132 +3050,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="46" t="s">
+        <v>245</v>
+      </c>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="18"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="20"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="50"/>
       <c r="N1" s="11"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="20"/>
+      <c r="I2" s="48" t="s">
+        <v>238</v>
+      </c>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="50"/>
       <c r="N2" s="11"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="20"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="50"/>
       <c r="N3" s="11"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="25"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="52"/>
       <c r="N4" s="10"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="23"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="33"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -3453,7 +3481,7 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="6" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="N15" s="6"/>
       <c r="O15" s="5"/>
@@ -4095,20 +4123,20 @@
       <c r="C39" s="9"/>
     </row>
     <row r="40" spans="1:16" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="44"/>
+      <c r="M40" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -4134,10 +4162,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0AB38BD-C79B-46B9-BBEB-F87063D2EF8F}">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4158,132 +4186,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="18"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="20"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="50"/>
       <c r="N1" s="11"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="20"/>
+      <c r="I2" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="50"/>
       <c r="N2" s="11"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="20"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="50"/>
       <c r="N3" s="11"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="25"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="52"/>
       <c r="N4" s="10"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="23"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="33"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -4378,19 +4406,19 @@
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="E9" s="5"/>
+        <v>241</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>253</v>
+      </c>
       <c r="F9" s="6" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H9" s="6"/>
-      <c r="I9" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="I9" s="5"/>
       <c r="J9" s="6" t="s">
         <v>21</v>
       </c>
@@ -4410,24 +4438,24 @@
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="6" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="6" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="I10" s="5"/>
+        <v>91</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="J10" s="6" t="s">
         <v>21</v>
       </c>
       <c r="K10" s="5">
-        <v>4000</v>
+        <v>100</v>
       </c>
       <c r="L10" s="5"/>
       <c r="M10" s="6"/>
@@ -4442,27 +4470,27 @@
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K11" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="K11" s="5">
+        <v>100</v>
+      </c>
       <c r="L11" s="5"/>
-      <c r="M11" s="6" t="s">
-        <v>171</v>
-      </c>
+      <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="5"/>
       <c r="P11" s="1"/>
@@ -4474,21 +4502,25 @@
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="6" t="s">
-        <v>168</v>
+        <v>106</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="6" t="s">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="H12" s="6"/>
+        <v>93</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>94</v>
+      </c>
       <c r="I12" s="5"/>
       <c r="J12" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K12" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="K12" s="5">
+        <v>4000</v>
+      </c>
       <c r="L12" s="5"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
@@ -4502,17 +4534,19 @@
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="6" t="s">
-        <v>194</v>
+        <v>143</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="6" t="s">
-        <v>195</v>
+        <v>144</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
       <c r="H13" s="6"/>
-      <c r="I13" s="5"/>
+      <c r="I13" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="J13" s="6" t="s">
         <v>21</v>
       </c>
@@ -4532,25 +4566,27 @@
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="6" t="s">
-        <v>191</v>
+        <v>101</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="6" t="s">
-        <v>192</v>
+        <v>102</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>193</v>
+        <v>92</v>
       </c>
       <c r="H14" s="6"/>
-      <c r="I14" s="5"/>
+      <c r="I14" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="J14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" s="5">
-        <v>500</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="K14" s="5"/>
       <c r="L14" s="5"/>
-      <c r="M14" s="6"/>
+      <c r="M14" s="6" t="s">
+        <v>168</v>
+      </c>
       <c r="N14" s="6"/>
       <c r="O14" s="5"/>
       <c r="P14" s="1"/>
@@ -4562,23 +4598,19 @@
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="6" t="s">
-        <v>27</v>
+        <v>247</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="6" t="s">
-        <v>28</v>
+        <v>248</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="5"/>
       <c r="J15" s="6" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
@@ -4594,27 +4626,21 @@
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="6" t="s">
-        <v>30</v>
+        <v>249</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="6" t="s">
-        <v>31</v>
+        <v>250</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="5"/>
       <c r="J16" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K16" s="5">
-        <v>50</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
@@ -4628,23 +4654,21 @@
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="6" t="s">
-        <v>34</v>
+        <v>254</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="6" t="s">
-        <v>35</v>
+        <v>255</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>36</v>
+        <v>256</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="I17" s="5"/>
       <c r="J17" s="6" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
@@ -4660,26 +4684,22 @@
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="6" t="s">
-        <v>38</v>
+        <v>191</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="6" t="s">
-        <v>39</v>
+        <v>192</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="5"/>
       <c r="J18" s="6" t="s">
         <v>21</v>
       </c>
       <c r="K18" s="5">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="L18" s="5"/>
       <c r="M18" s="6"/>
@@ -4694,25 +4714,23 @@
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="6" t="s">
-        <v>41</v>
+        <v>188</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="6" t="s">
-        <v>42</v>
+        <v>189</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="5"/>
       <c r="J19" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K19" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="K19" s="5">
+        <v>500</v>
+      </c>
       <c r="L19" s="5"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
@@ -4726,25 +4744,25 @@
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="6" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="6" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="I20" s="5"/>
+        <v>76</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="J20" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K20" s="5">
-        <v>200</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
@@ -4752,284 +4770,406 @@
       <c r="P20" s="1"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
+      <c r="A21" s="5">
+        <v>14</v>
+      </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="D21" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
+      <c r="F21" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" s="5">
+        <v>50</v>
+      </c>
       <c r="L21" s="5"/>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
       <c r="O21" s="5"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>15</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="1"/>
+    </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="5">
+        <v>16</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" s="5">
+        <v>50</v>
+      </c>
+      <c r="L23" s="5"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>17</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>18</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I25" s="5"/>
+      <c r="J25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="5">
+        <v>200</v>
+      </c>
+      <c r="L25" s="5"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="70" t="s">
+        <v>169</v>
+      </c>
+      <c r="B28" s="71"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="71"/>
+      <c r="K28" s="71"/>
+      <c r="L28" s="71"/>
+      <c r="M28" s="71"/>
+      <c r="N28" s="71"/>
+      <c r="O28" s="71"/>
+      <c r="P28" s="72"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="27">
+        <v>1</v>
+      </c>
+      <c r="B29" s="65" t="s">
+        <v>170</v>
+      </c>
+      <c r="C29" s="66"/>
+      <c r="D29" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H29" s="32"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="59" t="s">
         <v>172</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="28"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="29">
+      <c r="L29" s="61"/>
+      <c r="M29" s="48" t="s">
+        <v>239</v>
+      </c>
+      <c r="N29" s="49"/>
+      <c r="O29" s="49"/>
+      <c r="P29" s="50"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="28"/>
+      <c r="B30" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="66"/>
+      <c r="D30" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H30" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="I30" s="34"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="59" t="s">
+        <v>173</v>
+      </c>
+      <c r="L30" s="61"/>
+      <c r="M30" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="N30" s="49"/>
+      <c r="O30" s="49"/>
+      <c r="P30" s="50"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="28"/>
+      <c r="B31" s="65" t="s">
+        <v>175</v>
+      </c>
+      <c r="C31" s="66"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="49"/>
+      <c r="P31" s="50"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="28"/>
+      <c r="B32" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="66"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="L32" s="61"/>
+      <c r="M32" s="48" t="s">
+        <v>177</v>
+      </c>
+      <c r="N32" s="49"/>
+      <c r="O32" s="49"/>
+      <c r="P32" s="50"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" s="28"/>
+      <c r="B33" s="67" t="s">
+        <v>178</v>
+      </c>
+      <c r="C33" s="68"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="68"/>
+      <c r="H33" s="68"/>
+      <c r="I33" s="68"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="67"/>
+      <c r="L33" s="69"/>
+      <c r="M33" s="67"/>
+      <c r="N33" s="68"/>
+      <c r="O33" s="68"/>
+      <c r="P33" s="69"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" s="28"/>
+      <c r="B34" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="D34" s="60"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="G34" s="59" t="s">
+        <v>181</v>
+      </c>
+      <c r="H34" s="61"/>
+      <c r="I34" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="J34" s="61"/>
+      <c r="K34" s="62"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="62"/>
+      <c r="N34" s="64"/>
+      <c r="O34" s="64"/>
+      <c r="P34" s="63"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35" s="28"/>
+      <c r="B35" s="17">
         <v>1</v>
       </c>
-      <c r="B24" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="21" t="s">
+      <c r="C35" s="53" t="s">
         <v>240</v>
       </c>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="H24" s="21"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="L24" s="33"/>
-      <c r="M24" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="20"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="34"/>
-      <c r="B25" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H25" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="I25" s="22"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="L25" s="33"/>
-      <c r="M25" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="20"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="34"/>
-      <c r="B26" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="20"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="34"/>
-      <c r="B27" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="31"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="L27" s="33"/>
-      <c r="M27" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="20"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="34"/>
-      <c r="B28" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="40"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="39"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="40"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="34"/>
-      <c r="B29" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="32" t="s">
-        <v>182</v>
-      </c>
-      <c r="D29" s="42"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="36" t="s">
+      <c r="D35" s="54"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="53" t="s">
         <v>183</v>
       </c>
-      <c r="G29" s="32" t="s">
-        <v>184</v>
-      </c>
-      <c r="H29" s="33"/>
-      <c r="I29" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="J29" s="33"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="43"/>
-      <c r="N29" s="45"/>
-      <c r="O29" s="45"/>
-      <c r="P29" s="44"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="34"/>
-      <c r="B30" s="46">
-        <v>1</v>
-      </c>
-      <c r="C30" s="47" t="s">
-        <v>243</v>
-      </c>
-      <c r="D30" s="48"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="47" t="s">
-        <v>186</v>
-      </c>
-      <c r="H30" s="49"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="54"/>
-      <c r="O30" s="54"/>
-      <c r="P30" s="53"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="34"/>
-      <c r="B31" s="47"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="54"/>
-      <c r="O31" s="54"/>
-      <c r="P31" s="53"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="56"/>
+      <c r="N35" s="58"/>
+      <c r="O35" s="58"/>
+      <c r="P35" s="57"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36" s="28"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="56"/>
+      <c r="L36" s="57"/>
+      <c r="M36" s="56"/>
+      <c r="N36" s="58"/>
+      <c r="O36" s="58"/>
+      <c r="P36" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A23:P23"/>
-    <mergeCell ref="A24:A31"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
     <mergeCell ref="A5:P5"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:G1"/>
@@ -5037,6 +5177,48 @@
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A28:P28"/>
+    <mergeCell ref="A29:A36"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="B33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:P35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nop-job/model/nop-job.orm.xlsx
+++ b/nop-job/model/nop-job.orm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-job\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEEE8EE1-1558-4ECA-8A6F-B473DAC1A63B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5BAD158-6F2B-4EC2-9AC0-C88F97B4FB27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="5" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="5" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="269">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -683,54 +683,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SCHEDULER_GROUP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scheduler Group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调度器分组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scheduler Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调度器ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULER_EPOCH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scheduler Epoch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调度器世代</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调度器加载时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULER_LOAD_TIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scheduler Load Time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>JOB_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -914,42 +866,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ACTIVATED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COMPLETED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已超时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXPIRED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FAILED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已中止</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KILLED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>等待调度</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1066,22 +982,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EXEC_TIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Exec Time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>调度执行时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>实际执行时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1095,6 +999,150 @@
   </si>
   <si>
     <t>是否只执行一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXEC_COUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exec Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RECOVER_MODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Is Recover Mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否恢复模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上次执行ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本次执行完成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本次执行开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>useCoreModule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RUNNING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXEC_SUCCESS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXEC_FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOB_FINISHED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOB_FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOB_KILLED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务中止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行超时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXEC_TIMEOUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXEC_FAIL_COUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exec Fail Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAST_EXEC_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Last Exec ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXEC_BEGIN_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exec Begin Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXEC_END_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exec End Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAST_EXEC_END_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Last Exec End Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上次执行完成时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1425,6 +1473,45 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1434,45 +1521,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1503,6 +1551,36 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1521,15 +1599,9 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1537,30 +1609,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1884,14 +1932,14 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.6640625" customWidth="1"/>
-    <col min="2" max="3" width="19.58203125" customWidth="1"/>
-    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="2" max="3" width="19.5546875" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -1905,7 +1953,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1917,7 +1965,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1925,7 +1973,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1933,7 +1981,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1941,7 +1989,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>11</v>
       </c>
@@ -1949,7 +1997,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>12</v>
       </c>
@@ -1957,7 +2005,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>13</v>
       </c>
@@ -1965,7 +2013,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>14</v>
       </c>
@@ -1973,7 +2021,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>15</v>
       </c>
@@ -1981,7 +2029,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>16</v>
       </c>
@@ -1989,7 +2037,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>17</v>
       </c>
@@ -1997,37 +2045,37 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2047,17 +2095,17 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.08203125" customWidth="1"/>
-    <col min="2" max="2" width="27.9140625" customWidth="1"/>
-    <col min="3" max="3" width="39.25" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" customWidth="1"/>
+    <col min="3" max="3" width="39.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>151</v>
       </c>
@@ -2068,7 +2116,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -2079,7 +2127,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>56</v>
       </c>
@@ -2090,7 +2138,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>73</v>
       </c>
@@ -2101,7 +2149,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>71</v>
       </c>
@@ -2112,7 +2160,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>57</v>
       </c>
@@ -2123,7 +2171,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>58</v>
       </c>
@@ -2134,7 +2182,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>59</v>
       </c>
@@ -2145,7 +2193,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>61</v>
       </c>
@@ -2156,7 +2204,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>69</v>
       </c>
@@ -2167,32 +2215,36 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B11" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2211,12 +2263,12 @@
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.9140625" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>15</v>
       </c>
@@ -2239,7 +2291,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2256,7 +2308,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2273,7 +2325,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2290,7 +2342,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2307,7 +2359,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -2324,7 +2376,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -2341,7 +2393,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -2358,7 +2410,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -2373,7 +2425,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -2392,7 +2444,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -2411,7 +2463,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -2428,7 +2480,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -2443,7 +2495,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -2458,7 +2510,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -2475,7 +2527,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -2490,7 +2542,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -2507,7 +2559,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -2524,7 +2576,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2533,7 +2585,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2542,7 +2594,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2551,7 +2603,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2560,7 +2612,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2569,7 +2621,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2578,7 +2630,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2587,7 +2639,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2604,95 +2656,95 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4CD64A5-AB42-4D35-A396-5536329A6B7E}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="41">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="27">
         <v>1</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="E1" s="33"/>
+      <c r="B1" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="30"/>
+      <c r="D1" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="E1" s="32"/>
       <c r="F1" s="20" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="42"/>
-      <c r="B2" s="30" t="s">
-        <v>197</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="E2" s="33"/>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2" s="32"/>
       <c r="F2" s="20" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="42"/>
-      <c r="B3" s="30" t="s">
-        <v>199</v>
-      </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="33"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="42"/>
-      <c r="B4" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="37"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="42"/>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="28"/>
+      <c r="B3" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="32"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="28"/>
+      <c r="B4" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="36"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="28"/>
       <c r="B5" s="22" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="42"/>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="28"/>
       <c r="B6" s="21">
         <v>1</v>
       </c>
@@ -2700,16 +2752,16 @@
         <v>0</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="42"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="28"/>
       <c r="B7" s="21">
         <v>2</v>
       </c>
@@ -2717,16 +2769,16 @@
         <v>10</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="42"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="28"/>
       <c r="B8" s="21">
         <v>3</v>
       </c>
@@ -2734,18 +2786,18 @@
         <v>20</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="F8" s="24"/>
       <c r="G8" s="25" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="42"/>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="28"/>
       <c r="B9" s="21">
         <v>4</v>
       </c>
@@ -2753,16 +2805,16 @@
         <v>30</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>211</v>
+        <v>245</v>
       </c>
       <c r="F9" s="24"/>
       <c r="G9" s="25"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="42"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="28"/>
       <c r="B10" s="21">
         <v>5</v>
       </c>
@@ -2770,16 +2822,16 @@
         <v>40</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>213</v>
+        <v>246</v>
       </c>
       <c r="F10" s="24"/>
       <c r="G10" s="25"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="42"/>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="28"/>
       <c r="B11" s="21">
         <v>6</v>
       </c>
@@ -2787,16 +2839,16 @@
         <v>50</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="F11" s="24"/>
       <c r="G11" s="25"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="42"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="28"/>
       <c r="B12" s="21">
         <v>7</v>
       </c>
@@ -2804,16 +2856,16 @@
         <v>60</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>216</v>
+        <v>255</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>217</v>
+        <v>257</v>
       </c>
       <c r="F12" s="24"/>
       <c r="G12" s="25"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="42"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="28"/>
       <c r="B13" s="21">
         <v>8</v>
       </c>
@@ -2821,186 +2873,229 @@
         <v>70</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>218</v>
+        <v>252</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="F13" s="24"/>
       <c r="G13" s="25"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="42"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="40"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="27">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="28"/>
+      <c r="B14" s="21">
+        <v>9</v>
+      </c>
+      <c r="C14" s="26">
+        <v>80</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="F14" s="24"/>
+      <c r="G14" s="25"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="28"/>
+      <c r="B15" s="21">
+        <v>10</v>
+      </c>
+      <c r="C15" s="26">
+        <v>90</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="28"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="39"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="40">
         <v>2</v>
       </c>
-      <c r="B15" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="32" t="s">
-        <v>233</v>
-      </c>
-      <c r="E15" s="33"/>
-      <c r="F15" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="28"/>
-      <c r="B16" s="30" t="s">
-        <v>197</v>
-      </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="32" t="s">
-        <v>234</v>
-      </c>
-      <c r="E16" s="33"/>
-      <c r="F16" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="28"/>
-      <c r="B17" s="30" t="s">
-        <v>199</v>
-      </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="33"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="28"/>
-      <c r="B18" s="35" t="s">
+      <c r="B17" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="C17" s="30"/>
+      <c r="D17" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="E17" s="32"/>
+      <c r="F17" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="41"/>
+      <c r="B18" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="C18" s="30"/>
+      <c r="D18" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="E18" s="32"/>
+      <c r="F18" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="41"/>
+      <c r="B19" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="C19" s="30"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="32"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="41"/>
+      <c r="B20" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="36"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="41"/>
+      <c r="B21" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="41"/>
+      <c r="B22" s="21">
+        <v>1</v>
+      </c>
+      <c r="C22" s="21">
+        <v>0</v>
+      </c>
+      <c r="D22" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="37"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="28"/>
-      <c r="B19" s="22" t="s">
+      <c r="E22" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="41"/>
+      <c r="B23" s="21">
+        <v>2</v>
+      </c>
+      <c r="C23" s="21">
+        <v>1</v>
+      </c>
+      <c r="D23" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="D19" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="E19" s="23" t="s">
+      <c r="E23" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="F19" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="28"/>
-      <c r="B20" s="21">
-        <v>1</v>
-      </c>
-      <c r="C20" s="21">
-        <v>0</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>222</v>
-      </c>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="28"/>
-      <c r="B21" s="21">
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="41"/>
+      <c r="B24" s="21">
+        <v>3</v>
+      </c>
+      <c r="C24" s="21">
         <v>2</v>
       </c>
-      <c r="C21" s="21">
-        <v>1</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>223</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>224</v>
-      </c>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="28"/>
-      <c r="B22" s="21">
+      <c r="D24" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="41"/>
+      <c r="B25" s="21">
+        <v>4</v>
+      </c>
+      <c r="C25" s="21">
         <v>3</v>
       </c>
-      <c r="C22" s="21">
-        <v>2</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>225</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="28"/>
-      <c r="B23" s="21">
-        <v>4</v>
-      </c>
-      <c r="C23" s="21">
-        <v>3</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>227</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>228</v>
-      </c>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="29"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="40"/>
+      <c r="D25" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="42"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:A14"/>
+    <mergeCell ref="A17:A26"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="A1:A16"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="B2:C2"/>
@@ -3008,16 +3103,7 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="A15:A24"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B16:G16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3026,37 +3112,37 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49753E9A-158A-4EB9-A449-F2590B12608A}">
-  <dimension ref="A1:P40"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD13"/>
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.5" customWidth="1"/>
-    <col min="3" max="3" width="8.1640625" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="4.9140625" customWidth="1"/>
-    <col min="6" max="6" width="15.08203125" customWidth="1"/>
+    <col min="5" max="5" width="4.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="9" max="9" width="4.75" customWidth="1"/>
+    <col min="9" max="9" width="4.77734375" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="6.08203125" customWidth="1"/>
-    <col min="12" max="12" width="7.4140625" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" customWidth="1"/>
+    <col min="12" max="12" width="7.44140625" customWidth="1"/>
     <col min="13" max="13" width="9" customWidth="1"/>
-    <col min="14" max="14" width="6.5" customWidth="1"/>
+    <col min="14" max="14" width="6.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="51"/>
       <c r="C1" s="51"/>
       <c r="D1" s="46" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="E1" s="47"/>
       <c r="F1" s="47"/>
@@ -3073,14 +3159,14 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="51" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="51"/>
       <c r="C2" s="51"/>
       <c r="D2" s="46" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="E2" s="47"/>
       <c r="F2" s="47"/>
@@ -3089,7 +3175,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="48" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="J2" s="49"/>
       <c r="K2" s="49"/>
@@ -3099,7 +3185,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="51" t="s">
         <v>9</v>
       </c>
@@ -3119,7 +3205,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="51" t="s">
         <v>10</v>
       </c>
@@ -3139,25 +3225,25 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="33"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="31"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="32"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="45" t="s">
         <v>1</v>
       </c>
@@ -3177,7 +3263,7 @@
       <c r="O6" s="45"/>
       <c r="P6" s="45"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -3227,7 +3313,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>1</v>
       </c>
@@ -3263,7 +3349,7 @@
       <c r="O8" s="5"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>2</v>
       </c>
@@ -3297,7 +3383,7 @@
       <c r="O9" s="5"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>3</v>
       </c>
@@ -3329,7 +3415,7 @@
       <c r="O10" s="5"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>4</v>
       </c>
@@ -3361,7 +3447,7 @@
       <c r="O11" s="5"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>5</v>
       </c>
@@ -3393,7 +3479,7 @@
       <c r="O12" s="5"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>6</v>
       </c>
@@ -3425,7 +3511,7 @@
       <c r="O13" s="5"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>7</v>
       </c>
@@ -3455,7 +3541,7 @@
       <c r="O14" s="5"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>8</v>
       </c>
@@ -3481,13 +3567,13 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="6" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="N15" s="6"/>
       <c r="O15" s="5"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>9</v>
       </c>
@@ -3517,7 +3603,7 @@
       <c r="O16" s="5"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>10</v>
       </c>
@@ -3545,7 +3631,7 @@
       <c r="O17" s="5"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>11</v>
       </c>
@@ -3575,7 +3661,7 @@
       <c r="O18" s="5"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>12</v>
       </c>
@@ -3603,7 +3689,7 @@
       <c r="O19" s="5"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>13</v>
       </c>
@@ -3631,7 +3717,7 @@
       <c r="O20" s="5"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>14</v>
       </c>
@@ -3661,7 +3747,7 @@
       </c>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>15</v>
       </c>
@@ -3689,7 +3775,7 @@
       <c r="O22" s="5"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>16</v>
       </c>
@@ -3717,7 +3803,7 @@
       <c r="O23" s="5"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>17</v>
       </c>
@@ -3747,7 +3833,7 @@
       <c r="O24" s="5"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>18</v>
       </c>
@@ -3779,55 +3865,57 @@
       </c>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>19</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="6" t="s">
-        <v>153</v>
+        <v>27</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="6" t="s">
-        <v>155</v>
+        <v>28</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="H26" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>76</v>
+      </c>
       <c r="I26" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K26" s="5">
-        <v>50</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
       <c r="O26" s="5"/>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>20</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="6" t="s">
-        <v>154</v>
+        <v>30</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="6" t="s">
-        <v>157</v>
+        <v>31</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="H27" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>77</v>
+      </c>
       <c r="I27" s="5" t="s">
         <v>20</v>
       </c>
@@ -3835,7 +3923,7 @@
         <v>21</v>
       </c>
       <c r="K27" s="5">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="L27" s="5"/>
       <c r="M27" s="6"/>
@@ -3843,28 +3931,30 @@
       <c r="O27" s="5"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>21</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="6" t="s">
-        <v>159</v>
+        <v>34</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="6" t="s">
-        <v>160</v>
+        <v>35</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="H28" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="I28" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
@@ -3873,58 +3963,64 @@
       <c r="O28" s="5"/>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>22</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="6" t="s">
-        <v>163</v>
+        <v>38</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="6" t="s">
-        <v>164</v>
+        <v>39</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="H29" s="6"/>
-      <c r="I29" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="J29" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K29" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="K29" s="5">
+        <v>50</v>
+      </c>
       <c r="L29" s="5"/>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
       <c r="O29" s="5"/>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>23</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="6" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="6" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
@@ -3933,33 +4029,31 @@
       <c r="O30" s="5"/>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>24</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="6" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="6" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="I31" s="5"/>
       <c r="J31" s="6" t="s">
         <v>21</v>
       </c>
       <c r="K31" s="5">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="L31" s="5"/>
       <c r="M31" s="6"/>
@@ -3967,31 +4061,17 @@
       <c r="O31" s="5"/>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="5">
-        <v>25</v>
-      </c>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="6" t="s">
-        <v>34</v>
-      </c>
+      <c r="D32" s="6"/>
       <c r="E32" s="5"/>
-      <c r="F32" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>37</v>
-      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="6"/>
@@ -3999,148 +4079,32 @@
       <c r="O32" s="5"/>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="5">
-        <v>26</v>
-      </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K33" s="5">
-        <v>50</v>
-      </c>
-      <c r="L33" s="5"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="1"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="5">
-        <v>27</v>
-      </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E34" s="5"/>
-      <c r="F34" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="1"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="5">
-        <v>28</v>
-      </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E35" s="5"/>
-      <c r="F35" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="I35" s="5"/>
-      <c r="J35" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K35" s="5">
-        <v>200</v>
-      </c>
-      <c r="L35" s="5"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="1"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="1"/>
-    </row>
-    <row r="37" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B39" s="9" t="s">
+    <row r="33" spans="2:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B35" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="9"/>
-    </row>
-    <row r="40" spans="1:16" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="43" t="s">
+      <c r="C35" s="9"/>
+    </row>
+    <row r="36" spans="2:13" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="44"/>
-      <c r="K40" s="44"/>
-      <c r="L40" s="44"/>
-      <c r="M40" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="44"/>
+      <c r="M36" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B40:M40"/>
+    <mergeCell ref="B36:M36"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="I1:M1"/>
@@ -4162,37 +4126,37 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0AB38BD-C79B-46B9-BBEB-F87063D2EF8F}">
-  <dimension ref="A1:P36"/>
+  <dimension ref="A1:P41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A25"/>
+      <selection activeCell="A24" sqref="A24:A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.5" customWidth="1"/>
-    <col min="3" max="3" width="8.1640625" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="4.9140625" customWidth="1"/>
-    <col min="6" max="6" width="15.08203125" customWidth="1"/>
+    <col min="5" max="5" width="4.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="9" max="9" width="4.75" customWidth="1"/>
+    <col min="9" max="9" width="4.77734375" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="6.08203125" customWidth="1"/>
-    <col min="12" max="12" width="7.4140625" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" customWidth="1"/>
+    <col min="12" max="12" width="7.44140625" customWidth="1"/>
     <col min="13" max="13" width="9" customWidth="1"/>
-    <col min="14" max="14" width="6.5" customWidth="1"/>
+    <col min="14" max="14" width="6.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="51"/>
       <c r="C1" s="51"/>
       <c r="D1" s="46" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="E1" s="47"/>
       <c r="F1" s="47"/>
@@ -4209,14 +4173,14 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="51" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="51"/>
       <c r="C2" s="51"/>
       <c r="D2" s="46" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="E2" s="47"/>
       <c r="F2" s="47"/>
@@ -4225,7 +4189,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="48" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="J2" s="49"/>
       <c r="K2" s="49"/>
@@ -4235,7 +4199,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="51" t="s">
         <v>9</v>
       </c>
@@ -4255,7 +4219,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="51" t="s">
         <v>10</v>
       </c>
@@ -4275,25 +4239,25 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="33"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="31"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="32"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="45" t="s">
         <v>1</v>
       </c>
@@ -4313,7 +4277,7 @@
       <c r="O6" s="45"/>
       <c r="P6" s="45"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -4363,7 +4327,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>1</v>
       </c>
@@ -4374,14 +4338,14 @@
         <v>75</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="6" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="5" t="s">
@@ -4399,23 +4363,23 @@
       <c r="O8" s="5"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>2</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="6" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="5"/>
@@ -4431,7 +4395,7 @@
       <c r="O9" s="5"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>3</v>
       </c>
@@ -4463,7 +4427,7 @@
       <c r="O10" s="5"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>4</v>
       </c>
@@ -4495,7 +4459,7 @@
       <c r="O11" s="5"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>5</v>
       </c>
@@ -4527,7 +4491,7 @@
       <c r="O12" s="5"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>6</v>
       </c>
@@ -4559,7 +4523,7 @@
       <c r="O13" s="5"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>7</v>
       </c>
@@ -4585,30 +4549,32 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="6" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="N14" s="6"/>
       <c r="O14" s="5"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>8</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="6" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="6" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="H15" s="6"/>
-      <c r="I15" s="5"/>
+      <c r="I15" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="J15" s="6" t="s">
         <v>37</v>
       </c>
@@ -4619,26 +4585,28 @@
       <c r="O15" s="5"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>9</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="6" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="6" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="H16" s="6"/>
-      <c r="I16" s="5"/>
+      <c r="I16" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="J16" s="6" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
@@ -4647,28 +4615,26 @@
       <c r="O16" s="5"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>10</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="6" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="6" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>81</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="H17" s="6"/>
       <c r="I17" s="5"/>
       <c r="J17" s="6" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
@@ -4677,90 +4643,82 @@
       <c r="O17" s="5"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>11</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="6" t="s">
-        <v>191</v>
+        <v>264</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="6" t="s">
-        <v>192</v>
+        <v>265</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>193</v>
+        <v>242</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="5"/>
       <c r="J18" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="5">
-        <v>200</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="5"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>12</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="6" t="s">
-        <v>188</v>
+        <v>230</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="6" t="s">
-        <v>189</v>
+        <v>231</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>190</v>
+        <v>232</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="5"/>
       <c r="J19" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K19" s="5">
-        <v>500</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" s="5"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>13</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="6" t="s">
-        <v>27</v>
+        <v>258</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="6" t="s">
-        <v>28</v>
+        <v>259</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="5"/>
       <c r="J20" s="6" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
@@ -4769,33 +4727,29 @@
       <c r="O20" s="5"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>14</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="6" t="s">
-        <v>30</v>
+        <v>179</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="6" t="s">
-        <v>31</v>
+        <v>180</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="5"/>
       <c r="J21" s="6" t="s">
         <v>21</v>
       </c>
       <c r="K21" s="5">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="L21" s="5"/>
       <c r="M21" s="6"/>
@@ -4803,373 +4757,560 @@
       <c r="O21" s="5"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>15</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="6" t="s">
-        <v>34</v>
+        <v>176</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="6" t="s">
-        <v>35</v>
+        <v>177</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="5"/>
       <c r="J22" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K22" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="K22" s="5">
+        <v>500</v>
+      </c>
       <c r="L22" s="5"/>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
       <c r="O22" s="5"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>16</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="6" t="s">
-        <v>38</v>
+        <v>237</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="6" t="s">
-        <v>39</v>
+        <v>238</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="H23" s="6"/>
+      <c r="I23" s="5"/>
       <c r="J23" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K23" s="5">
-        <v>50</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
       <c r="O23" s="5"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>17</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="6" t="s">
-        <v>41</v>
+        <v>260</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="6" t="s">
-        <v>42</v>
+        <v>261</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="H24" s="6"/>
+      <c r="I24" s="5"/>
       <c r="J24" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K24" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="K24" s="5">
+        <v>32</v>
+      </c>
       <c r="L24" s="5"/>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
       <c r="O24" s="5"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>18</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="6" t="s">
-        <v>44</v>
+        <v>266</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="6" t="s">
-        <v>45</v>
+        <v>267</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>85</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="H25" s="6"/>
       <c r="I25" s="5"/>
       <c r="J25" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K25" s="5">
-        <v>200</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
       <c r="O25" s="5"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>19</v>
+      </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
+      <c r="D26" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
+      <c r="F26" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" s="5">
+        <v>50</v>
+      </c>
       <c r="L26" s="5"/>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
       <c r="O26" s="5"/>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="70" t="s">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>20</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>21</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" s="5">
+        <v>50</v>
+      </c>
+      <c r="L28" s="5"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="1"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>22</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="1"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>23</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I30" s="5"/>
+      <c r="J30" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K30" s="5">
+        <v>200</v>
+      </c>
+      <c r="L30" s="5"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="1"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="1"/>
+    </row>
+    <row r="32" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="53" t="s">
+        <v>157</v>
+      </c>
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="54"/>
+      <c r="N33" s="54"/>
+      <c r="O33" s="54"/>
+      <c r="P33" s="55"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="40">
+        <v>1</v>
+      </c>
+      <c r="B34" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="C34" s="57"/>
+      <c r="D34" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H34" s="31"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="L34" s="59"/>
+      <c r="M34" s="48" t="s">
+        <v>218</v>
+      </c>
+      <c r="N34" s="49"/>
+      <c r="O34" s="49"/>
+      <c r="P34" s="50"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="41"/>
+      <c r="B35" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="57"/>
+      <c r="D35" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H35" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="I35" s="33"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="58" t="s">
+        <v>161</v>
+      </c>
+      <c r="L35" s="59"/>
+      <c r="M35" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="N35" s="49"/>
+      <c r="O35" s="49"/>
+      <c r="P35" s="50"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="41"/>
+      <c r="B36" s="56" t="s">
+        <v>163</v>
+      </c>
+      <c r="C36" s="57"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="48"/>
+      <c r="N36" s="49"/>
+      <c r="O36" s="49"/>
+      <c r="P36" s="50"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="41"/>
+      <c r="B37" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="57"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="L37" s="59"/>
+      <c r="M37" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="N37" s="49"/>
+      <c r="O37" s="49"/>
+      <c r="P37" s="50"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="41"/>
+      <c r="B38" s="60" t="s">
+        <v>166</v>
+      </c>
+      <c r="C38" s="61"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="61"/>
+      <c r="I38" s="61"/>
+      <c r="J38" s="62"/>
+      <c r="K38" s="60"/>
+      <c r="L38" s="62"/>
+      <c r="M38" s="60"/>
+      <c r="N38" s="61"/>
+      <c r="O38" s="61"/>
+      <c r="P38" s="62"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="41"/>
+      <c r="B39" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="58" t="s">
+        <v>167</v>
+      </c>
+      <c r="D39" s="69"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="G39" s="58" t="s">
         <v>169</v>
       </c>
-      <c r="B28" s="71"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="71"/>
-      <c r="I28" s="71"/>
-      <c r="J28" s="71"/>
-      <c r="K28" s="71"/>
-      <c r="L28" s="71"/>
-      <c r="M28" s="71"/>
-      <c r="N28" s="71"/>
-      <c r="O28" s="71"/>
-      <c r="P28" s="72"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="27">
+      <c r="H39" s="59"/>
+      <c r="I39" s="58" t="s">
+        <v>170</v>
+      </c>
+      <c r="J39" s="59"/>
+      <c r="K39" s="70"/>
+      <c r="L39" s="71"/>
+      <c r="M39" s="70"/>
+      <c r="N39" s="72"/>
+      <c r="O39" s="72"/>
+      <c r="P39" s="71"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="41"/>
+      <c r="B40" s="17">
         <v>1</v>
       </c>
-      <c r="B29" s="65" t="s">
-        <v>170</v>
-      </c>
-      <c r="C29" s="66"/>
-      <c r="D29" s="32" t="s">
-        <v>237</v>
-      </c>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="2" t="s">
+      <c r="C40" s="63" t="s">
+        <v>219</v>
+      </c>
+      <c r="D40" s="64"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="63" t="s">
         <v>171</v>
       </c>
-      <c r="H29" s="32"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="59" t="s">
-        <v>172</v>
-      </c>
-      <c r="L29" s="61"/>
-      <c r="M29" s="48" t="s">
-        <v>239</v>
-      </c>
-      <c r="N29" s="49"/>
-      <c r="O29" s="49"/>
-      <c r="P29" s="50"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="28"/>
-      <c r="B30" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="66"/>
-      <c r="D30" s="32" t="s">
-        <v>187</v>
-      </c>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H30" s="32" t="s">
-        <v>238</v>
-      </c>
-      <c r="I30" s="34"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="59" t="s">
-        <v>173</v>
-      </c>
-      <c r="L30" s="61"/>
-      <c r="M30" s="48" t="s">
-        <v>174</v>
-      </c>
-      <c r="N30" s="49"/>
-      <c r="O30" s="49"/>
-      <c r="P30" s="50"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="28"/>
-      <c r="B31" s="65" t="s">
-        <v>175</v>
-      </c>
-      <c r="C31" s="66"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="48"/>
-      <c r="N31" s="49"/>
-      <c r="O31" s="49"/>
-      <c r="P31" s="50"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="28"/>
-      <c r="B32" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="66"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="59" t="s">
-        <v>9</v>
-      </c>
-      <c r="L32" s="61"/>
-      <c r="M32" s="48" t="s">
-        <v>177</v>
-      </c>
-      <c r="N32" s="49"/>
-      <c r="O32" s="49"/>
-      <c r="P32" s="50"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="28"/>
-      <c r="B33" s="67" t="s">
-        <v>178</v>
-      </c>
-      <c r="C33" s="68"/>
-      <c r="D33" s="68"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="68"/>
-      <c r="H33" s="68"/>
-      <c r="I33" s="68"/>
-      <c r="J33" s="69"/>
-      <c r="K33" s="67"/>
-      <c r="L33" s="69"/>
-      <c r="M33" s="67"/>
-      <c r="N33" s="68"/>
-      <c r="O33" s="68"/>
-      <c r="P33" s="69"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="28"/>
-      <c r="B34" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="59" t="s">
-        <v>179</v>
-      </c>
-      <c r="D34" s="60"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="G34" s="59" t="s">
-        <v>181</v>
-      </c>
-      <c r="H34" s="61"/>
-      <c r="I34" s="59" t="s">
-        <v>182</v>
-      </c>
-      <c r="J34" s="61"/>
-      <c r="K34" s="62"/>
-      <c r="L34" s="63"/>
-      <c r="M34" s="62"/>
-      <c r="N34" s="64"/>
-      <c r="O34" s="64"/>
-      <c r="P34" s="63"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="28"/>
-      <c r="B35" s="17">
-        <v>1</v>
-      </c>
-      <c r="C35" s="53" t="s">
-        <v>240</v>
-      </c>
-      <c r="D35" s="54"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="53" t="s">
-        <v>183</v>
-      </c>
-      <c r="H35" s="55"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="56"/>
-      <c r="L35" s="57"/>
-      <c r="M35" s="56"/>
-      <c r="N35" s="58"/>
-      <c r="O35" s="58"/>
-      <c r="P35" s="57"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="28"/>
-      <c r="B36" s="53"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="56"/>
-      <c r="L36" s="57"/>
-      <c r="M36" s="56"/>
-      <c r="N36" s="58"/>
-      <c r="O36" s="58"/>
-      <c r="P36" s="57"/>
+      <c r="H40" s="65"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="66"/>
+      <c r="L40" s="67"/>
+      <c r="M40" s="66"/>
+      <c r="N40" s="68"/>
+      <c r="O40" s="68"/>
+      <c r="P40" s="67"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="41"/>
+      <c r="B41" s="63"/>
+      <c r="C41" s="64"/>
+      <c r="D41" s="64"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="65"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="66"/>
+      <c r="L41" s="67"/>
+      <c r="M41" s="66"/>
+      <c r="N41" s="68"/>
+      <c r="O41" s="68"/>
+      <c r="P41" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="B38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A33:P33"/>
+    <mergeCell ref="A34:A41"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="H36:J36"/>
     <mergeCell ref="A5:P5"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:G1"/>
@@ -5182,43 +5323,6 @@
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:M4"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A28:P28"/>
-    <mergeCell ref="A29:A36"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="B33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:P35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nop-job/model/nop-job.orm.xlsx
+++ b/nop-job/model/nop-job.orm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-job\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5BAD158-6F2B-4EC2-9AC0-C88F97B4FB27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BF1537-E4B2-4C03-BD6E-627B6DFA1D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="5" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="284">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -683,18 +683,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JOB_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Job Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Job ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>job/job-instance-status</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1018,26 +1006,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RECOVER_MODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Is Recover Mode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否恢复模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BOOLEAN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>上次执行ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>本次执行完成时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1110,14 +1082,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LAST_EXEC_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Last Exec ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EXEC_BEGIN_TIME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1134,15 +1098,111 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LAST_EXEC_END_TIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Last Exec End Time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上次执行完成时间</t>
+    <t>lastJobInstance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上次执行实例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Last Job Instance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NopJobInstance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续失败的时候会不断累加。执行成功后下次执行会从零开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时器确定的调度时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际开始执行的时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际执行结束的时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次执行都可能根据JobDefinition中的参数配置来创建。JobDefinition中的参数可能包含动态变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同分组的任务名称也不允许重复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅用于分组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MANUAL_FIRE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manual Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否手工触发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIRED_BY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fired By</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发执行的用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXEC_CANCELLED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOB_INSTANCE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Job Instance Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAST_JOB_INSTANCE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Last Job Instance ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastJobInstanceId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jobInstanceId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务实例ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上次任务实例ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1473,54 +1533,54 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1551,6 +1611,57 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1558,57 +1669,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2217,7 +2277,7 @@
     </row>
     <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B11" s="1" t="b">
         <v>1</v>
@@ -2656,95 +2716,95 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4CD64A5-AB42-4D35-A396-5536329A6B7E}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="27">
+      <c r="A1" s="41">
         <v>1</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="E1" s="33"/>
+      <c r="F1" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="42"/>
+      <c r="B2" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="20" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="E2" s="33"/>
+      <c r="F2" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G2" s="21" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="42"/>
+      <c r="B3" s="30" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29" t="s">
+      <c r="C3" s="31"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="33"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="42"/>
+      <c r="B4" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="31" t="s">
-        <v>210</v>
-      </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="20" t="s">
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="37"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="42"/>
+      <c r="B5" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="G2" s="21" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29" t="s">
+      <c r="C5" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="32"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="34" t="s">
+      <c r="D5" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="E5" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="36"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>191</v>
-      </c>
       <c r="F5" s="23" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="21">
         <v>1</v>
       </c>
@@ -2752,16 +2812,16 @@
         <v>0</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="21">
         <v>2</v>
       </c>
@@ -2769,16 +2829,16 @@
         <v>10</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="21">
         <v>3</v>
       </c>
@@ -2786,18 +2846,18 @@
         <v>20</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F8" s="24"/>
       <c r="G8" s="25" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="21">
         <v>4</v>
       </c>
@@ -2805,16 +2865,16 @@
         <v>30</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="F9" s="24"/>
       <c r="G9" s="25"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="21">
         <v>5</v>
       </c>
@@ -2822,16 +2882,16 @@
         <v>40</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="F10" s="24"/>
       <c r="G10" s="25"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="21">
         <v>6</v>
       </c>
@@ -2839,16 +2899,16 @@
         <v>50</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="F11" s="24"/>
       <c r="G11" s="25"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="21">
         <v>7</v>
       </c>
@@ -2856,16 +2916,16 @@
         <v>60</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="F12" s="24"/>
       <c r="G12" s="25"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="21">
         <v>8</v>
       </c>
@@ -2873,16 +2933,16 @@
         <v>70</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F13" s="24"/>
       <c r="G13" s="25"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="21">
         <v>9</v>
       </c>
@@ -2890,16 +2950,16 @@
         <v>80</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="25"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="21">
         <v>10</v>
       </c>
@@ -2907,195 +2967,203 @@
         <v>90</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="F15" s="24"/>
       <c r="G15" s="25"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="39"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="21">
+        <v>11</v>
+      </c>
+      <c r="C16" s="26">
+        <v>100</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="F16" s="24"/>
+      <c r="G16" s="25"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="40">
+      <c r="A17" s="42"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="40"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="27">
         <v>2</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B18" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="C18" s="31"/>
+      <c r="D18" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="E18" s="33"/>
+      <c r="F18" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="28"/>
+      <c r="B19" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="20" t="s">
+      <c r="C19" s="31"/>
+      <c r="D19" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="E19" s="33"/>
+      <c r="F19" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G19" s="21" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="28"/>
+      <c r="B20" s="30" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
-      <c r="B18" s="29" t="s">
+      <c r="C20" s="31"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="33"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="28"/>
+      <c r="B21" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="E18" s="32"/>
-      <c r="F18" s="20" t="s">
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="37"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="28"/>
+      <c r="B22" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="G18" s="21" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
-      <c r="B19" s="29" t="s">
+      <c r="C22" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="32"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
-      <c r="B20" s="34" t="s">
+      <c r="D22" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="E22" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="36"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="41"/>
-      <c r="B21" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="F21" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="G21" s="23" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="41"/>
-      <c r="B22" s="21">
+      <c r="F22" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="28"/>
+      <c r="B23" s="21">
         <v>1</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C23" s="21">
         <v>0</v>
       </c>
-      <c r="D22" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
-      <c r="B23" s="21">
-        <v>2</v>
-      </c>
-      <c r="C23" s="21">
-        <v>1</v>
-      </c>
       <c r="D23" s="24" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F23" s="24"/>
       <c r="G23" s="24"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="41"/>
+      <c r="A24" s="28"/>
       <c r="B24" s="21">
+        <v>2</v>
+      </c>
+      <c r="C24" s="21">
+        <v>1</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="28"/>
+      <c r="B25" s="21">
         <v>3</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C25" s="21">
         <v>2</v>
       </c>
-      <c r="D24" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="41"/>
-      <c r="B25" s="21">
-        <v>4</v>
-      </c>
-      <c r="C25" s="21">
-        <v>3</v>
-      </c>
       <c r="D25" s="24" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F25" s="24"/>
       <c r="G25" s="24" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="42"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="39"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="21">
+        <v>4</v>
+      </c>
+      <c r="C26" s="21">
+        <v>3</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="29"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A17:A26"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="A1:A16"/>
+    <mergeCell ref="A1:A17"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="B2:C2"/>
@@ -3103,7 +3171,16 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="A18:A27"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B27:G27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3115,7 +3192,7 @@
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3142,7 +3219,7 @@
       <c r="B1" s="51"/>
       <c r="C1" s="51"/>
       <c r="D1" s="46" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E1" s="47"/>
       <c r="F1" s="47"/>
@@ -3166,7 +3243,7 @@
       <c r="B2" s="51"/>
       <c r="C2" s="51"/>
       <c r="D2" s="46" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E2" s="47"/>
       <c r="F2" s="47"/>
@@ -3175,7 +3252,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="48" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="J2" s="49"/>
       <c r="K2" s="49"/>
@@ -3226,22 +3303,22 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="32"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="33"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="45" t="s">
@@ -3567,7 +3644,7 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="N15" s="6"/>
       <c r="O15" s="5"/>
@@ -4126,10 +4203,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0AB38BD-C79B-46B9-BBEB-F87063D2EF8F}">
-  <dimension ref="A1:P41"/>
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:A30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4156,7 +4233,7 @@
       <c r="B1" s="51"/>
       <c r="C1" s="51"/>
       <c r="D1" s="46" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E1" s="47"/>
       <c r="F1" s="47"/>
@@ -4180,7 +4257,7 @@
       <c r="B2" s="51"/>
       <c r="C2" s="51"/>
       <c r="D2" s="46" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E2" s="47"/>
       <c r="F2" s="47"/>
@@ -4189,7 +4266,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="48" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J2" s="49"/>
       <c r="K2" s="49"/>
@@ -4240,22 +4317,22 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="32"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="33"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="45" t="s">
@@ -4338,14 +4415,14 @@
         <v>75</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>153</v>
+        <v>276</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="6" t="s">
-        <v>154</v>
+        <v>277</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>155</v>
+        <v>282</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="5" t="s">
@@ -4370,16 +4447,16 @@
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="5"/>
@@ -4424,7 +4501,9 @@
       <c r="L10" s="5"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
-      <c r="O10" s="5"/>
+      <c r="O10" s="5" t="s">
+        <v>266</v>
+      </c>
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -4456,7 +4535,9 @@
       <c r="L11" s="5"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
-      <c r="O11" s="5"/>
+      <c r="O11" s="5" t="s">
+        <v>267</v>
+      </c>
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -4488,7 +4569,9 @@
       <c r="L12" s="5"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
-      <c r="O12" s="5"/>
+      <c r="O12" s="5" t="s">
+        <v>265</v>
+      </c>
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -4549,7 +4632,7 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="N14" s="6"/>
       <c r="O14" s="5"/>
@@ -4562,14 +4645,14 @@
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="5" t="s">
@@ -4582,7 +4665,9 @@
       <c r="L15" s="5"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
-      <c r="O15" s="5"/>
+      <c r="O15" s="5" t="s">
+        <v>262</v>
+      </c>
       <c r="P15" s="1"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -4592,14 +4677,14 @@
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="5" t="s">
@@ -4622,14 +4707,14 @@
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="6" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="6" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="5"/>
@@ -4640,7 +4725,9 @@
       <c r="L17" s="5"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="5"/>
+      <c r="O17" s="5" t="s">
+        <v>263</v>
+      </c>
       <c r="P17" s="1"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -4650,14 +4737,14 @@
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="6" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="6" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="5"/>
@@ -4668,7 +4755,9 @@
       <c r="L18" s="5"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
-      <c r="O18" s="5"/>
+      <c r="O18" s="5" t="s">
+        <v>264</v>
+      </c>
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -4678,19 +4767,19 @@
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="5"/>
       <c r="J19" s="6" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
@@ -4706,19 +4795,19 @@
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="6" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="6" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>236</v>
+        <v>270</v>
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="5"/>
       <c r="J20" s="6" t="s">
-        <v>22</v>
+        <v>234</v>
       </c>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
@@ -4734,14 +4823,14 @@
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="6" t="s">
-        <v>179</v>
+        <v>271</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="6" t="s">
-        <v>180</v>
+        <v>272</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>181</v>
+        <v>273</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="5"/>
@@ -4749,7 +4838,7 @@
         <v>21</v>
       </c>
       <c r="K21" s="5">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="L21" s="5"/>
       <c r="M21" s="6"/>
@@ -4764,27 +4853,27 @@
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="6" t="s">
-        <v>176</v>
+        <v>251</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="6" t="s">
-        <v>177</v>
+        <v>252</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>178</v>
+        <v>233</v>
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="5"/>
       <c r="J22" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K22" s="5">
-        <v>500</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
-      <c r="O22" s="5"/>
+      <c r="O22" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
@@ -4794,21 +4883,23 @@
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="6" t="s">
-        <v>237</v>
+        <v>176</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="6" t="s">
-        <v>238</v>
+        <v>177</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>239</v>
+        <v>178</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="5"/>
       <c r="J23" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="K23" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="K23" s="5">
+        <v>200</v>
+      </c>
       <c r="L23" s="5"/>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
@@ -4822,14 +4913,14 @@
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="6" t="s">
-        <v>260</v>
+        <v>173</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="6" t="s">
-        <v>261</v>
+        <v>174</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>241</v>
+        <v>175</v>
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="5"/>
@@ -4837,7 +4928,7 @@
         <v>21</v>
       </c>
       <c r="K24" s="5">
-        <v>32</v>
+        <v>500</v>
       </c>
       <c r="L24" s="5"/>
       <c r="M24" s="6"/>
@@ -4852,21 +4943,23 @@
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="6" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="6" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="5"/>
       <c r="J25" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K25" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="K25" s="5">
+        <v>32</v>
+      </c>
       <c r="L25" s="5"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
@@ -4880,27 +4973,25 @@
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K26" s="5">
-        <v>50</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
@@ -4914,25 +5005,27 @@
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K27" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="K27" s="5">
+        <v>50</v>
+      </c>
       <c r="L27" s="5"/>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
@@ -4946,27 +5039,25 @@
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K28" s="5">
-        <v>50</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
@@ -4980,25 +5071,27 @@
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K29" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="K29" s="5">
+        <v>50</v>
+      </c>
       <c r="L29" s="5"/>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
@@ -5012,25 +5105,25 @@
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="I30" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="J30" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K30" s="5">
-        <v>200</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
@@ -5038,279 +5131,505 @@
       <c r="P30" s="1"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
+      <c r="A31" s="5">
+        <v>24</v>
+      </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
+      <c r="D31" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
+      <c r="F31" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
+      <c r="J31" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31" s="5">
+        <v>200</v>
+      </c>
       <c r="L31" s="5"/>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
       <c r="O31" s="5"/>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="53" t="s">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="1"/>
+    </row>
+    <row r="33" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="B34" s="71"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="71"/>
+      <c r="K34" s="71"/>
+      <c r="L34" s="71"/>
+      <c r="M34" s="71"/>
+      <c r="N34" s="71"/>
+      <c r="O34" s="71"/>
+      <c r="P34" s="72"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="27">
+        <v>1</v>
+      </c>
+      <c r="B35" s="68" t="s">
+        <v>155</v>
+      </c>
+      <c r="C35" s="69"/>
+      <c r="D35" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H35" s="32"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="B33" s="54"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="54"/>
-      <c r="J33" s="54"/>
-      <c r="K33" s="54"/>
-      <c r="L33" s="54"/>
-      <c r="M33" s="54"/>
-      <c r="N33" s="54"/>
-      <c r="O33" s="54"/>
-      <c r="P33" s="55"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="40">
-        <v>1</v>
-      </c>
-      <c r="B34" s="56" t="s">
-        <v>158</v>
-      </c>
-      <c r="C34" s="57"/>
-      <c r="D34" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="H34" s="31"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="L34" s="59"/>
-      <c r="M34" s="48" t="s">
-        <v>218</v>
-      </c>
-      <c r="N34" s="49"/>
-      <c r="O34" s="49"/>
-      <c r="P34" s="50"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="41"/>
-      <c r="B35" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="57"/>
-      <c r="D35" s="31" t="s">
-        <v>175</v>
-      </c>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H35" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="I35" s="33"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="58" t="s">
-        <v>161</v>
-      </c>
-      <c r="L35" s="59"/>
+      <c r="L35" s="64"/>
       <c r="M35" s="48" t="s">
-        <v>162</v>
+        <v>215</v>
       </c>
       <c r="N35" s="49"/>
       <c r="O35" s="49"/>
       <c r="P35" s="50"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="41"/>
-      <c r="B36" s="56" t="s">
-        <v>163</v>
-      </c>
-      <c r="C36" s="57"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="48"/>
+      <c r="A36" s="28"/>
+      <c r="B36" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="69"/>
+      <c r="D36" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H36" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="I36" s="34"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="62" t="s">
+        <v>158</v>
+      </c>
+      <c r="L36" s="64"/>
+      <c r="M36" s="48" t="s">
+        <v>159</v>
+      </c>
       <c r="N36" s="49"/>
       <c r="O36" s="49"/>
       <c r="P36" s="50"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="41"/>
-      <c r="B37" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" s="57"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="58" t="s">
-        <v>9</v>
-      </c>
-      <c r="L37" s="59"/>
-      <c r="M37" s="48" t="s">
-        <v>165</v>
-      </c>
+      <c r="A37" s="28"/>
+      <c r="B37" s="68" t="s">
+        <v>160</v>
+      </c>
+      <c r="C37" s="69"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="48"/>
       <c r="N37" s="49"/>
       <c r="O37" s="49"/>
       <c r="P37" s="50"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="41"/>
-      <c r="B38" s="60" t="s">
+      <c r="A38" s="28"/>
+      <c r="B38" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="69"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="L38" s="64"/>
+      <c r="M38" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="N38" s="49"/>
+      <c r="O38" s="49"/>
+      <c r="P38" s="50"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="28"/>
+      <c r="B39" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="55"/>
+      <c r="K39" s="53"/>
+      <c r="L39" s="55"/>
+      <c r="M39" s="53"/>
+      <c r="N39" s="54"/>
+      <c r="O39" s="54"/>
+      <c r="P39" s="55"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="28"/>
+      <c r="B40" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="62" t="s">
+        <v>164</v>
+      </c>
+      <c r="D40" s="63"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="G40" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="C38" s="61"/>
-      <c r="D38" s="61"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="61"/>
-      <c r="H38" s="61"/>
-      <c r="I38" s="61"/>
-      <c r="J38" s="62"/>
-      <c r="K38" s="60"/>
-      <c r="L38" s="62"/>
-      <c r="M38" s="60"/>
-      <c r="N38" s="61"/>
-      <c r="O38" s="61"/>
-      <c r="P38" s="62"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="41"/>
-      <c r="B39" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" s="58" t="s">
+      <c r="H40" s="64"/>
+      <c r="I40" s="62" t="s">
         <v>167</v>
       </c>
-      <c r="D39" s="69"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="13" t="s">
+      <c r="J40" s="64"/>
+      <c r="K40" s="65"/>
+      <c r="L40" s="66"/>
+      <c r="M40" s="65"/>
+      <c r="N40" s="67"/>
+      <c r="O40" s="67"/>
+      <c r="P40" s="66"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="28"/>
+      <c r="B41" s="17">
+        <v>1</v>
+      </c>
+      <c r="C41" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="D41" s="57"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="56" t="s">
         <v>168</v>
       </c>
-      <c r="G39" s="58" t="s">
-        <v>169</v>
-      </c>
-      <c r="H39" s="59"/>
-      <c r="I39" s="58" t="s">
-        <v>170</v>
-      </c>
-      <c r="J39" s="59"/>
-      <c r="K39" s="70"/>
-      <c r="L39" s="71"/>
-      <c r="M39" s="70"/>
-      <c r="N39" s="72"/>
-      <c r="O39" s="72"/>
-      <c r="P39" s="71"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="41"/>
-      <c r="B40" s="17">
-        <v>1</v>
-      </c>
-      <c r="C40" s="63" t="s">
-        <v>219</v>
-      </c>
-      <c r="D40" s="64"/>
-      <c r="E40" s="65"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="63" t="s">
-        <v>171</v>
-      </c>
-      <c r="H40" s="65"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="66"/>
-      <c r="L40" s="67"/>
-      <c r="M40" s="66"/>
-      <c r="N40" s="68"/>
-      <c r="O40" s="68"/>
-      <c r="P40" s="67"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="41"/>
-      <c r="B41" s="63"/>
-      <c r="C41" s="64"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="65"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="63"/>
-      <c r="H41" s="65"/>
+      <c r="H41" s="58"/>
       <c r="I41" s="18"/>
       <c r="J41" s="19"/>
-      <c r="K41" s="66"/>
-      <c r="L41" s="67"/>
-      <c r="M41" s="66"/>
-      <c r="N41" s="68"/>
-      <c r="O41" s="68"/>
-      <c r="P41" s="67"/>
+      <c r="K41" s="59"/>
+      <c r="L41" s="60"/>
+      <c r="M41" s="59"/>
+      <c r="N41" s="61"/>
+      <c r="O41" s="61"/>
+      <c r="P41" s="60"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="28"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="56"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="59"/>
+      <c r="L42" s="60"/>
+      <c r="M42" s="59"/>
+      <c r="N42" s="61"/>
+      <c r="O42" s="61"/>
+      <c r="P42" s="60"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="27">
+        <v>2</v>
+      </c>
+      <c r="B43" s="68" t="s">
+        <v>155</v>
+      </c>
+      <c r="C43" s="69"/>
+      <c r="D43" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H43" s="32"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="L43" s="64"/>
+      <c r="M43" s="48" t="s">
+        <v>260</v>
+      </c>
+      <c r="N43" s="49"/>
+      <c r="O43" s="49"/>
+      <c r="P43" s="50"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="28"/>
+      <c r="B44" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="69"/>
+      <c r="D44" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="I44" s="34"/>
+      <c r="J44" s="33"/>
+      <c r="K44" s="62" t="s">
+        <v>158</v>
+      </c>
+      <c r="L44" s="64"/>
+      <c r="M44" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="N44" s="49"/>
+      <c r="O44" s="49"/>
+      <c r="P44" s="50"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="28"/>
+      <c r="B45" s="68" t="s">
+        <v>160</v>
+      </c>
+      <c r="C45" s="69"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="48"/>
+      <c r="N45" s="49"/>
+      <c r="O45" s="49"/>
+      <c r="P45" s="50"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="28"/>
+      <c r="B46" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="69"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="L46" s="64"/>
+      <c r="M46" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="N46" s="49"/>
+      <c r="O46" s="49"/>
+      <c r="P46" s="50"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="28"/>
+      <c r="B47" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="C47" s="54"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="54"/>
+      <c r="H47" s="54"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="55"/>
+      <c r="K47" s="53"/>
+      <c r="L47" s="55"/>
+      <c r="M47" s="53"/>
+      <c r="N47" s="54"/>
+      <c r="O47" s="54"/>
+      <c r="P47" s="55"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="28"/>
+      <c r="B48" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="62" t="s">
+        <v>164</v>
+      </c>
+      <c r="D48" s="63"/>
+      <c r="E48" s="64"/>
+      <c r="F48" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="G48" s="62" t="s">
+        <v>166</v>
+      </c>
+      <c r="H48" s="64"/>
+      <c r="I48" s="62" t="s">
+        <v>167</v>
+      </c>
+      <c r="J48" s="64"/>
+      <c r="K48" s="65"/>
+      <c r="L48" s="66"/>
+      <c r="M48" s="65"/>
+      <c r="N48" s="67"/>
+      <c r="O48" s="67"/>
+      <c r="P48" s="66"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="28"/>
+      <c r="B49" s="17">
+        <v>1</v>
+      </c>
+      <c r="C49" s="56" t="s">
+        <v>280</v>
+      </c>
+      <c r="D49" s="57"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="56" t="s">
+        <v>281</v>
+      </c>
+      <c r="H49" s="58"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="59"/>
+      <c r="L49" s="60"/>
+      <c r="M49" s="59"/>
+      <c r="N49" s="61"/>
+      <c r="O49" s="61"/>
+      <c r="P49" s="60"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="28"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="57"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="58"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="56"/>
+      <c r="H50" s="58"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="59"/>
+      <c r="L50" s="60"/>
+      <c r="M50" s="59"/>
+      <c r="N50" s="61"/>
+      <c r="O50" s="61"/>
+      <c r="P50" s="60"/>
     </row>
   </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="B38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:P41"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A33:P33"/>
-    <mergeCell ref="A34:A41"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="H36:J36"/>
+  <mergeCells count="84">
+    <mergeCell ref="M49:P49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="M47:P47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="M48:P48"/>
+    <mergeCell ref="M45:P45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:J46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="M46:P46"/>
+    <mergeCell ref="M43:P43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M44:P44"/>
+    <mergeCell ref="A43:A50"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="B47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="K49:L49"/>
     <mergeCell ref="A5:P5"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:G1"/>
@@ -5323,6 +5642,43 @@
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A34:P34"/>
+    <mergeCell ref="A35:A42"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="B39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:P41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nop-job/model/nop-job.orm.xlsx
+++ b/nop-job/model/nop-job.orm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-job\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BF1537-E4B2-4C03-BD6E-627B6DFA1D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1720FCD4-700F-474D-A26D-0EE4867A806E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="5" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="6" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="字典定义" sheetId="17" r:id="rId4"/>
     <sheet name="nop_job_definition" sheetId="1" r:id="rId5"/>
     <sheet name="nop_job_instance" sheetId="16" r:id="rId6"/>
+    <sheet name="nop_job_instance_his" sheetId="18" r:id="rId7"/>
+    <sheet name="nop_job_assignment" sheetId="19" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="299">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1110,10 +1112,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NopJobInstance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>连续失败的时候会不断累加。执行成功后下次执行会从零开始</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1203,6 +1201,70 @@
   </si>
   <si>
     <t>上次任务实例ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PARTITION_INDEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Partition Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分区索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMALLINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务实例历史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Job Instance History</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NopJobInstanceHis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nop_job_assignment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Job Assignment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务分配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务实例ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SERVER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Server Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASSIGNMENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assignment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nop_job_instance_his</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1533,13 +1595,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1575,10 +1634,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1611,13 +1673,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1629,13 +1691,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2725,17 +2787,17 @@
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="41">
+      <c r="A1" s="27">
         <v>1</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="32" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="E1" s="33"/>
+      <c r="E1" s="32"/>
       <c r="F1" s="20" t="s">
         <v>180</v>
       </c>
@@ -2744,15 +2806,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
-      <c r="B2" s="30" t="s">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="E2" s="33"/>
+      <c r="E2" s="32"/>
       <c r="F2" s="20" t="s">
         <v>183</v>
       </c>
@@ -2761,29 +2823,29 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
-      <c r="B3" s="30" t="s">
+      <c r="A3" s="28"/>
+      <c r="B3" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="33"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="32"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="42"/>
-      <c r="B4" s="35" t="s">
+      <c r="A4" s="28"/>
+      <c r="B4" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="37"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="36"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="42"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="22" t="s">
         <v>186</v>
       </c>
@@ -2804,7 +2866,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="21">
         <v>1</v>
       </c>
@@ -2821,7 +2883,7 @@
       <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="21">
         <v>2</v>
       </c>
@@ -2838,7 +2900,7 @@
       <c r="G7" s="24"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="21">
         <v>3</v>
       </c>
@@ -2857,7 +2919,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="21">
         <v>4</v>
       </c>
@@ -2874,7 +2936,7 @@
       <c r="G9" s="25"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="21">
         <v>5</v>
       </c>
@@ -2891,7 +2953,7 @@
       <c r="G10" s="25"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="21">
         <v>6</v>
       </c>
@@ -2908,7 +2970,7 @@
       <c r="G11" s="25"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="21">
         <v>7</v>
       </c>
@@ -2916,16 +2978,16 @@
         <v>60</v>
       </c>
       <c r="D12" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="E12" s="24" t="s">
         <v>274</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>275</v>
       </c>
       <c r="F12" s="24"/>
       <c r="G12" s="25"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
+      <c r="A13" s="28"/>
       <c r="B13" s="21">
         <v>8</v>
       </c>
@@ -2942,7 +3004,7 @@
       <c r="G13" s="25"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="21">
         <v>9</v>
       </c>
@@ -2959,7 +3021,7 @@
       <c r="G14" s="25"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="21">
         <v>10</v>
       </c>
@@ -2976,7 +3038,7 @@
       <c r="G15" s="25"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="21">
         <v>11</v>
       </c>
@@ -2993,26 +3055,26 @@
       <c r="G16" s="25"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="40"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="39"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="27">
+      <c r="A18" s="40">
         <v>2</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="32" t="s">
+      <c r="C18" s="30"/>
+      <c r="D18" s="31" t="s">
         <v>209</v>
       </c>
-      <c r="E18" s="33"/>
+      <c r="E18" s="32"/>
       <c r="F18" s="20" t="s">
         <v>180</v>
       </c>
@@ -3021,15 +3083,15 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="30" t="s">
+      <c r="A19" s="41"/>
+      <c r="B19" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="32" t="s">
+      <c r="C19" s="30"/>
+      <c r="D19" s="31" t="s">
         <v>210</v>
       </c>
-      <c r="E19" s="33"/>
+      <c r="E19" s="32"/>
       <c r="F19" s="20" t="s">
         <v>183</v>
       </c>
@@ -3038,29 +3100,29 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="B20" s="30" t="s">
+      <c r="A20" s="41"/>
+      <c r="B20" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="33"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="32"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="35" t="s">
+      <c r="A21" s="41"/>
+      <c r="B21" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="37"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="36"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="22" t="s">
         <v>186</v>
       </c>
@@ -3081,7 +3143,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
+      <c r="A23" s="41"/>
       <c r="B23" s="21">
         <v>1</v>
       </c>
@@ -3098,7 +3160,7 @@
       <c r="G23" s="24"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
+      <c r="A24" s="41"/>
       <c r="B24" s="21">
         <v>2</v>
       </c>
@@ -3115,7 +3177,7 @@
       <c r="G24" s="24"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
+      <c r="A25" s="41"/>
       <c r="B25" s="21">
         <v>3</v>
       </c>
@@ -3134,7 +3196,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
+      <c r="A26" s="41"/>
       <c r="B26" s="21">
         <v>4</v>
       </c>
@@ -3153,16 +3215,25 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="40"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A18:A27"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B27:G27"/>
     <mergeCell ref="A1:A17"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
@@ -3172,15 +3243,6 @@
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B17:G17"/>
-    <mergeCell ref="A18:A27"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B27:G27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3189,10 +3251,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49753E9A-158A-4EB9-A449-F2590B12608A}">
-  <dimension ref="A1:P36"/>
+  <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD26"/>
+      <selection activeCell="W35" sqref="W35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3303,22 +3365,22 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="33"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="32"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="45" t="s">
@@ -3949,23 +4011,21 @@
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="6" t="s">
-        <v>27</v>
+        <v>283</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="6" t="s">
-        <v>28</v>
+        <v>284</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>76</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="H26" s="6"/>
       <c r="I26" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>49</v>
+        <v>286</v>
       </c>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
@@ -3981,27 +4041,25 @@
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K27" s="5">
-        <v>50</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
@@ -4015,25 +4073,27 @@
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K28" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="K28" s="5">
+        <v>50</v>
+      </c>
       <c r="L28" s="5"/>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
@@ -4047,27 +4107,25 @@
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K29" s="5">
-        <v>50</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
@@ -4081,25 +4139,27 @@
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K30" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="K30" s="5">
+        <v>50</v>
+      </c>
       <c r="L30" s="5"/>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
@@ -4113,25 +4173,25 @@
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="I31" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="J31" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K31" s="5">
-        <v>200</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
@@ -4139,49 +4199,81 @@
       <c r="P31" s="1"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
+      <c r="A32" s="5">
+        <v>25</v>
+      </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
+      <c r="D32" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
+      <c r="F32" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
+      <c r="J32" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K32" s="5">
+        <v>200</v>
+      </c>
       <c r="L32" s="5"/>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
       <c r="O32" s="5"/>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="2:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="9" t="s">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="1"/>
+    </row>
+    <row r="34" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B36" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="9"/>
-    </row>
-    <row r="36" spans="2:13" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="43" t="s">
+      <c r="C36" s="9"/>
+    </row>
+    <row r="37" spans="1:16" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="44"/>
-      <c r="K36" s="44"/>
-      <c r="L36" s="44"/>
-      <c r="M36" s="44"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B36:M36"/>
+    <mergeCell ref="B37:M37"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="I1:M1"/>
@@ -4203,10 +4295,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0AB38BD-C79B-46B9-BBEB-F87063D2EF8F}">
-  <dimension ref="A1:P50"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M45" sqref="M45:P45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4317,22 +4409,22 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="33"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="32"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="45" t="s">
@@ -4415,14 +4507,14 @@
         <v>75</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="5" t="s">
@@ -4502,7 +4594,7 @@
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="P10" s="1"/>
     </row>
@@ -4536,7 +4628,7 @@
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="P11" s="1"/>
     </row>
@@ -4570,7 +4662,7 @@
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P12" s="1"/>
     </row>
@@ -4666,7 +4758,7 @@
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P15" s="1"/>
     </row>
@@ -4726,7 +4818,7 @@
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
       <c r="O17" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P17" s="1"/>
     </row>
@@ -4756,7 +4848,7 @@
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P18" s="1"/>
     </row>
@@ -4795,14 +4887,14 @@
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>269</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>270</v>
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="5"/>
@@ -4823,14 +4915,14 @@
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>272</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>273</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="5"/>
@@ -4872,7 +4964,7 @@
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
       <c r="O22" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P22" s="1"/>
     </row>
@@ -4943,14 +5035,14 @@
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="5"/>
@@ -4973,23 +5065,21 @@
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="6" t="s">
-        <v>27</v>
+        <v>283</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="6" t="s">
-        <v>28</v>
+        <v>284</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>76</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="H26" s="6"/>
       <c r="I26" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>49</v>
+        <v>286</v>
       </c>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
@@ -5005,27 +5095,25 @@
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K27" s="5">
-        <v>50</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
@@ -5039,25 +5127,27 @@
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K28" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="K28" s="5">
+        <v>50</v>
+      </c>
       <c r="L28" s="5"/>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
@@ -5071,27 +5161,25 @@
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K29" s="5">
-        <v>50</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
@@ -5105,25 +5193,27 @@
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K30" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="K30" s="5">
+        <v>50</v>
+      </c>
       <c r="L30" s="5"/>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
@@ -5137,25 +5227,25 @@
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="I31" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="J31" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K31" s="5">
-        <v>200</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
@@ -5163,473 +5253,507 @@
       <c r="P31" s="1"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
+      <c r="A32" s="5">
+        <v>25</v>
+      </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
+      <c r="D32" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
+      <c r="F32" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
+      <c r="J32" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K32" s="5">
+        <v>200</v>
+      </c>
       <c r="L32" s="5"/>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
       <c r="O32" s="5"/>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="70" t="s">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="1"/>
+    </row>
+    <row r="34" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="70" t="s">
         <v>154</v>
       </c>
-      <c r="B34" s="71"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="71"/>
-      <c r="J34" s="71"/>
-      <c r="K34" s="71"/>
-      <c r="L34" s="71"/>
-      <c r="M34" s="71"/>
-      <c r="N34" s="71"/>
-      <c r="O34" s="71"/>
-      <c r="P34" s="72"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="27">
+      <c r="B35" s="71"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="71"/>
+      <c r="I35" s="71"/>
+      <c r="J35" s="71"/>
+      <c r="K35" s="71"/>
+      <c r="L35" s="71"/>
+      <c r="M35" s="71"/>
+      <c r="N35" s="71"/>
+      <c r="O35" s="71"/>
+      <c r="P35" s="72"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="40">
         <v>1</v>
       </c>
-      <c r="B35" s="68" t="s">
+      <c r="B36" s="68" t="s">
         <v>155</v>
       </c>
-      <c r="C35" s="69"/>
-      <c r="D35" s="32" t="s">
+      <c r="C36" s="69"/>
+      <c r="D36" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="2" t="s">
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="H35" s="32"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="62" t="s">
+      <c r="H36" s="31"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="62" t="s">
         <v>157</v>
-      </c>
-      <c r="L35" s="64"/>
-      <c r="M35" s="48" t="s">
-        <v>215</v>
-      </c>
-      <c r="N35" s="49"/>
-      <c r="O35" s="49"/>
-      <c r="P35" s="50"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="28"/>
-      <c r="B36" s="68" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="69"/>
-      <c r="D36" s="32" t="s">
-        <v>172</v>
-      </c>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H36" s="32" t="s">
-        <v>214</v>
-      </c>
-      <c r="I36" s="34"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="62" t="s">
-        <v>158</v>
       </c>
       <c r="L36" s="64"/>
       <c r="M36" s="48" t="s">
-        <v>159</v>
+        <v>215</v>
       </c>
       <c r="N36" s="49"/>
       <c r="O36" s="49"/>
       <c r="P36" s="50"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="28"/>
+      <c r="A37" s="41"/>
       <c r="B37" s="68" t="s">
-        <v>160</v>
+        <v>4</v>
       </c>
       <c r="C37" s="69"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="48"/>
+      <c r="D37" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H37" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="I37" s="33"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="62" t="s">
+        <v>158</v>
+      </c>
+      <c r="L37" s="64"/>
+      <c r="M37" s="48" t="s">
+        <v>159</v>
+      </c>
       <c r="N37" s="49"/>
       <c r="O37" s="49"/>
       <c r="P37" s="50"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="28"/>
+      <c r="A38" s="41"/>
       <c r="B38" s="68" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="C38" s="69"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="L38" s="64"/>
-      <c r="M38" s="48" t="s">
-        <v>162</v>
-      </c>
+      <c r="D38" s="31"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="48"/>
       <c r="N38" s="49"/>
       <c r="O38" s="49"/>
       <c r="P38" s="50"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="28"/>
-      <c r="B39" s="53" t="s">
+      <c r="A39" s="41"/>
+      <c r="B39" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="69"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="L39" s="64"/>
+      <c r="M39" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="N39" s="49"/>
+      <c r="O39" s="49"/>
+      <c r="P39" s="50"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="41"/>
+      <c r="B40" s="59" t="s">
         <v>163</v>
       </c>
-      <c r="C39" s="54"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="54"/>
-      <c r="H39" s="54"/>
-      <c r="I39" s="54"/>
-      <c r="J39" s="55"/>
-      <c r="K39" s="53"/>
-      <c r="L39" s="55"/>
-      <c r="M39" s="53"/>
-      <c r="N39" s="54"/>
-      <c r="O39" s="54"/>
-      <c r="P39" s="55"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="28"/>
-      <c r="B40" s="16" t="s">
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="60"/>
+      <c r="I40" s="60"/>
+      <c r="J40" s="61"/>
+      <c r="K40" s="59"/>
+      <c r="L40" s="61"/>
+      <c r="M40" s="59"/>
+      <c r="N40" s="60"/>
+      <c r="O40" s="60"/>
+      <c r="P40" s="61"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="41"/>
+      <c r="B41" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C40" s="62" t="s">
+      <c r="C41" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="D40" s="63"/>
-      <c r="E40" s="64"/>
-      <c r="F40" s="13" t="s">
+      <c r="D41" s="63"/>
+      <c r="E41" s="64"/>
+      <c r="F41" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="G40" s="62" t="s">
+      <c r="G41" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="H40" s="64"/>
-      <c r="I40" s="62" t="s">
+      <c r="H41" s="64"/>
+      <c r="I41" s="62" t="s">
         <v>167</v>
       </c>
-      <c r="J40" s="64"/>
-      <c r="K40" s="65"/>
-      <c r="L40" s="66"/>
-      <c r="M40" s="65"/>
-      <c r="N40" s="67"/>
-      <c r="O40" s="67"/>
-      <c r="P40" s="66"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="28"/>
-      <c r="B41" s="17">
+      <c r="J41" s="64"/>
+      <c r="K41" s="65"/>
+      <c r="L41" s="66"/>
+      <c r="M41" s="65"/>
+      <c r="N41" s="67"/>
+      <c r="O41" s="67"/>
+      <c r="P41" s="66"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="41"/>
+      <c r="B42" s="17">
         <v>1</v>
       </c>
-      <c r="C41" s="56" t="s">
+      <c r="C42" s="56" t="s">
         <v>216</v>
       </c>
-      <c r="D41" s="57"/>
-      <c r="E41" s="58"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="56" t="s">
-        <v>168</v>
-      </c>
-      <c r="H41" s="58"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="59"/>
-      <c r="L41" s="60"/>
-      <c r="M41" s="59"/>
-      <c r="N41" s="61"/>
-      <c r="O41" s="61"/>
-      <c r="P41" s="60"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="28"/>
-      <c r="B42" s="56"/>
-      <c r="C42" s="57"/>
       <c r="D42" s="57"/>
       <c r="E42" s="58"/>
       <c r="F42" s="18"/>
-      <c r="G42" s="56"/>
+      <c r="G42" s="56" t="s">
+        <v>168</v>
+      </c>
       <c r="H42" s="58"/>
       <c r="I42" s="18"/>
       <c r="J42" s="19"/>
-      <c r="K42" s="59"/>
-      <c r="L42" s="60"/>
-      <c r="M42" s="59"/>
-      <c r="N42" s="61"/>
-      <c r="O42" s="61"/>
-      <c r="P42" s="60"/>
+      <c r="K42" s="53"/>
+      <c r="L42" s="55"/>
+      <c r="M42" s="53"/>
+      <c r="N42" s="54"/>
+      <c r="O42" s="54"/>
+      <c r="P42" s="55"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="27">
+      <c r="A43" s="41"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="56"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="53"/>
+      <c r="L43" s="55"/>
+      <c r="M43" s="53"/>
+      <c r="N43" s="54"/>
+      <c r="O43" s="54"/>
+      <c r="P43" s="55"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="40">
         <v>2</v>
       </c>
-      <c r="B43" s="68" t="s">
+      <c r="B44" s="68" t="s">
         <v>155</v>
       </c>
-      <c r="C43" s="69"/>
-      <c r="D43" s="32" t="s">
+      <c r="C44" s="69"/>
+      <c r="D44" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="2" t="s">
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="H43" s="32"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="33"/>
-      <c r="K43" s="62" t="s">
+      <c r="H44" s="31"/>
+      <c r="I44" s="33"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="62" t="s">
         <v>157</v>
-      </c>
-      <c r="L43" s="64"/>
-      <c r="M43" s="48" t="s">
-        <v>260</v>
-      </c>
-      <c r="N43" s="49"/>
-      <c r="O43" s="49"/>
-      <c r="P43" s="50"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="28"/>
-      <c r="B44" s="68" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" s="69"/>
-      <c r="D44" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H44" s="32" t="s">
-        <v>259</v>
-      </c>
-      <c r="I44" s="34"/>
-      <c r="J44" s="33"/>
-      <c r="K44" s="62" t="s">
-        <v>158</v>
       </c>
       <c r="L44" s="64"/>
       <c r="M44" s="48" t="s">
-        <v>159</v>
+        <v>289</v>
       </c>
       <c r="N44" s="49"/>
       <c r="O44" s="49"/>
       <c r="P44" s="50"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="28"/>
+      <c r="A45" s="41"/>
       <c r="B45" s="68" t="s">
-        <v>160</v>
+        <v>4</v>
       </c>
       <c r="C45" s="69"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="33"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="14"/>
-      <c r="M45" s="48"/>
+      <c r="D45" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H45" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="I45" s="33"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="62" t="s">
+        <v>158</v>
+      </c>
+      <c r="L45" s="64"/>
+      <c r="M45" s="48" t="s">
+        <v>159</v>
+      </c>
       <c r="N45" s="49"/>
       <c r="O45" s="49"/>
       <c r="P45" s="50"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="28"/>
+      <c r="A46" s="41"/>
       <c r="B46" s="68" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="C46" s="69"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="34"/>
-      <c r="J46" s="33"/>
-      <c r="K46" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="L46" s="64"/>
-      <c r="M46" s="48" t="s">
-        <v>162</v>
-      </c>
+      <c r="D46" s="31"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="H46" s="33"/>
+      <c r="I46" s="33"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="48"/>
       <c r="N46" s="49"/>
       <c r="O46" s="49"/>
       <c r="P46" s="50"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="28"/>
-      <c r="B47" s="53" t="s">
+      <c r="A47" s="41"/>
+      <c r="B47" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="69"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="33"/>
+      <c r="J47" s="32"/>
+      <c r="K47" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="L47" s="64"/>
+      <c r="M47" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="N47" s="49"/>
+      <c r="O47" s="49"/>
+      <c r="P47" s="50"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="41"/>
+      <c r="B48" s="59" t="s">
         <v>163</v>
       </c>
-      <c r="C47" s="54"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="54"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="54"/>
-      <c r="H47" s="54"/>
-      <c r="I47" s="54"/>
-      <c r="J47" s="55"/>
-      <c r="K47" s="53"/>
-      <c r="L47" s="55"/>
-      <c r="M47" s="53"/>
-      <c r="N47" s="54"/>
-      <c r="O47" s="54"/>
-      <c r="P47" s="55"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="28"/>
-      <c r="B48" s="16" t="s">
+      <c r="C48" s="60"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="60"/>
+      <c r="H48" s="60"/>
+      <c r="I48" s="60"/>
+      <c r="J48" s="61"/>
+      <c r="K48" s="59"/>
+      <c r="L48" s="61"/>
+      <c r="M48" s="59"/>
+      <c r="N48" s="60"/>
+      <c r="O48" s="60"/>
+      <c r="P48" s="61"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="41"/>
+      <c r="B49" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="62" t="s">
+      <c r="C49" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="D48" s="63"/>
-      <c r="E48" s="64"/>
-      <c r="F48" s="13" t="s">
+      <c r="D49" s="63"/>
+      <c r="E49" s="64"/>
+      <c r="F49" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="G48" s="62" t="s">
+      <c r="G49" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="H48" s="64"/>
-      <c r="I48" s="62" t="s">
+      <c r="H49" s="64"/>
+      <c r="I49" s="62" t="s">
         <v>167</v>
       </c>
-      <c r="J48" s="64"/>
-      <c r="K48" s="65"/>
-      <c r="L48" s="66"/>
-      <c r="M48" s="65"/>
-      <c r="N48" s="67"/>
-      <c r="O48" s="67"/>
-      <c r="P48" s="66"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="28"/>
-      <c r="B49" s="17">
+      <c r="J49" s="64"/>
+      <c r="K49" s="65"/>
+      <c r="L49" s="66"/>
+      <c r="M49" s="65"/>
+      <c r="N49" s="67"/>
+      <c r="O49" s="67"/>
+      <c r="P49" s="66"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="41"/>
+      <c r="B50" s="17">
         <v>1</v>
       </c>
-      <c r="C49" s="56" t="s">
-        <v>280</v>
-      </c>
-      <c r="D49" s="57"/>
-      <c r="E49" s="58"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="56" t="s">
-        <v>281</v>
-      </c>
-      <c r="H49" s="58"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="19"/>
-      <c r="K49" s="59"/>
-      <c r="L49" s="60"/>
-      <c r="M49" s="59"/>
-      <c r="N49" s="61"/>
-      <c r="O49" s="61"/>
-      <c r="P49" s="60"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="28"/>
-      <c r="B50" s="56"/>
-      <c r="C50" s="57"/>
+      <c r="C50" s="56" t="s">
+        <v>279</v>
+      </c>
       <c r="D50" s="57"/>
       <c r="E50" s="58"/>
       <c r="F50" s="18"/>
-      <c r="G50" s="56"/>
+      <c r="G50" s="56" t="s">
+        <v>280</v>
+      </c>
       <c r="H50" s="58"/>
       <c r="I50" s="18"/>
       <c r="J50" s="19"/>
-      <c r="K50" s="59"/>
-      <c r="L50" s="60"/>
-      <c r="M50" s="59"/>
-      <c r="N50" s="61"/>
-      <c r="O50" s="61"/>
-      <c r="P50" s="60"/>
+      <c r="K50" s="53"/>
+      <c r="L50" s="55"/>
+      <c r="M50" s="53"/>
+      <c r="N50" s="54"/>
+      <c r="O50" s="54"/>
+      <c r="P50" s="55"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="41"/>
+      <c r="B51" s="56"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="58"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="56"/>
+      <c r="H51" s="58"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="53"/>
+      <c r="L51" s="55"/>
+      <c r="M51" s="53"/>
+      <c r="N51" s="54"/>
+      <c r="O51" s="54"/>
+      <c r="P51" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="M49:P49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="M47:P47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="M48:P48"/>
-    <mergeCell ref="M45:P45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:J46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="M46:P46"/>
+    <mergeCell ref="B40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="K43:L43"/>
     <mergeCell ref="M43:P43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="M44:P44"/>
-    <mergeCell ref="A43:A50"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="B47:J47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A35:P35"/>
+    <mergeCell ref="A36:A43"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="H38:J38"/>
     <mergeCell ref="A5:P5"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:G1"/>
@@ -5642,14 +5766,1536 @@
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="B48:J48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M44:P44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:P45"/>
+    <mergeCell ref="M46:P46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="M47:P47"/>
+    <mergeCell ref="M48:P48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="M49:P49"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:P51"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3EFCAF-3FBE-4CF9-B875-566E4D9E69F9}">
+  <dimension ref="A1:P51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="4.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="9" max="9" width="4.77734375" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" customWidth="1"/>
+    <col min="12" max="12" width="7.44140625" customWidth="1"/>
+    <col min="13" max="13" width="9" customWidth="1"/>
+    <col min="14" max="14" width="6.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="46" t="s">
+        <v>298</v>
+      </c>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="48"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="46" t="s">
+        <v>287</v>
+      </c>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="48" t="s">
+        <v>288</v>
+      </c>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="31"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="32"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="5">
+        <v>32</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>2</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="5">
+        <v>32</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>3</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="5">
+        <v>100</v>
+      </c>
+      <c r="L10" s="5"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>4</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="5">
+        <v>100</v>
+      </c>
+      <c r="L11" s="5"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>5</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="5">
+        <v>4000</v>
+      </c>
+      <c r="L12" s="5"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>6</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="5">
+        <v>200</v>
+      </c>
+      <c r="L13" s="5"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>7</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="N14" s="6"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>8</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>9</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>10</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>11</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>12</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>13</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>14</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" s="5">
+        <v>50</v>
+      </c>
+      <c r="L21" s="5"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>15</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>16</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="H23" s="6"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" s="5">
+        <v>200</v>
+      </c>
+      <c r="L23" s="5"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>17</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="H24" s="6"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="5">
+        <v>500</v>
+      </c>
+      <c r="L24" s="5"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>18</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="H25" s="6"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="5">
+        <v>32</v>
+      </c>
+      <c r="L25" s="5"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>19</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="H26" s="6"/>
+      <c r="I26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>20</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>21</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" s="5">
+        <v>50</v>
+      </c>
+      <c r="L28" s="5"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="1"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>22</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="1"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>23</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K30" s="5">
+        <v>50</v>
+      </c>
+      <c r="L30" s="5"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="1"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>24</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="1"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>25</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I32" s="5"/>
+      <c r="J32" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K32" s="5">
+        <v>200</v>
+      </c>
+      <c r="L32" s="5"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="1"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="1"/>
+    </row>
+    <row r="34" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="B35" s="71"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="71"/>
+      <c r="I35" s="71"/>
+      <c r="J35" s="71"/>
+      <c r="K35" s="71"/>
+      <c r="L35" s="71"/>
+      <c r="M35" s="71"/>
+      <c r="N35" s="71"/>
+      <c r="O35" s="71"/>
+      <c r="P35" s="72"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="40">
+        <v>1</v>
+      </c>
+      <c r="B36" s="68" t="s">
+        <v>155</v>
+      </c>
+      <c r="C36" s="69"/>
+      <c r="D36" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H36" s="31"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="L36" s="64"/>
+      <c r="M36" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="N36" s="49"/>
+      <c r="O36" s="49"/>
+      <c r="P36" s="50"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="41"/>
+      <c r="B37" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="69"/>
+      <c r="D37" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H37" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="I37" s="33"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="62" t="s">
+        <v>158</v>
+      </c>
+      <c r="L37" s="64"/>
+      <c r="M37" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="N37" s="49"/>
+      <c r="O37" s="49"/>
+      <c r="P37" s="50"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="41"/>
+      <c r="B38" s="68" t="s">
+        <v>160</v>
+      </c>
+      <c r="C38" s="69"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="48"/>
+      <c r="N38" s="49"/>
+      <c r="O38" s="49"/>
+      <c r="P38" s="50"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="41"/>
+      <c r="B39" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="69"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="L39" s="64"/>
+      <c r="M39" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="N39" s="49"/>
+      <c r="O39" s="49"/>
+      <c r="P39" s="50"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="41"/>
+      <c r="B40" s="59" t="s">
+        <v>163</v>
+      </c>
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="60"/>
+      <c r="I40" s="60"/>
+      <c r="J40" s="61"/>
+      <c r="K40" s="59"/>
+      <c r="L40" s="61"/>
+      <c r="M40" s="59"/>
+      <c r="N40" s="60"/>
+      <c r="O40" s="60"/>
+      <c r="P40" s="61"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="41"/>
+      <c r="B41" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="62" t="s">
+        <v>164</v>
+      </c>
+      <c r="D41" s="63"/>
+      <c r="E41" s="64"/>
+      <c r="F41" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="G41" s="62" t="s">
+        <v>166</v>
+      </c>
+      <c r="H41" s="64"/>
+      <c r="I41" s="62" t="s">
+        <v>167</v>
+      </c>
+      <c r="J41" s="64"/>
+      <c r="K41" s="65"/>
+      <c r="L41" s="66"/>
+      <c r="M41" s="65"/>
+      <c r="N41" s="67"/>
+      <c r="O41" s="67"/>
+      <c r="P41" s="66"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="41"/>
+      <c r="B42" s="17">
+        <v>1</v>
+      </c>
+      <c r="C42" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="D42" s="57"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="56" t="s">
+        <v>168</v>
+      </c>
+      <c r="H42" s="58"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="53"/>
+      <c r="L42" s="55"/>
+      <c r="M42" s="53"/>
+      <c r="N42" s="54"/>
+      <c r="O42" s="54"/>
+      <c r="P42" s="55"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="41"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="56"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="53"/>
+      <c r="L43" s="55"/>
+      <c r="M43" s="53"/>
+      <c r="N43" s="54"/>
+      <c r="O43" s="54"/>
+      <c r="P43" s="55"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="40">
+        <v>2</v>
+      </c>
+      <c r="B44" s="68" t="s">
+        <v>155</v>
+      </c>
+      <c r="C44" s="69"/>
+      <c r="D44" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H44" s="31"/>
+      <c r="I44" s="33"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="L44" s="64"/>
+      <c r="M44" s="48" t="s">
+        <v>289</v>
+      </c>
+      <c r="N44" s="49"/>
+      <c r="O44" s="49"/>
+      <c r="P44" s="50"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="41"/>
+      <c r="B45" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="69"/>
+      <c r="D45" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H45" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="I45" s="33"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="62" t="s">
+        <v>158</v>
+      </c>
+      <c r="L45" s="64"/>
+      <c r="M45" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="N45" s="49"/>
+      <c r="O45" s="49"/>
+      <c r="P45" s="50"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="41"/>
+      <c r="B46" s="68" t="s">
+        <v>160</v>
+      </c>
+      <c r="C46" s="69"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="H46" s="33"/>
+      <c r="I46" s="33"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="48"/>
+      <c r="N46" s="49"/>
+      <c r="O46" s="49"/>
+      <c r="P46" s="50"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="41"/>
+      <c r="B47" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="69"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="33"/>
+      <c r="J47" s="32"/>
+      <c r="K47" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="L47" s="64"/>
+      <c r="M47" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="N47" s="49"/>
+      <c r="O47" s="49"/>
+      <c r="P47" s="50"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="41"/>
+      <c r="B48" s="59" t="s">
+        <v>163</v>
+      </c>
+      <c r="C48" s="60"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="60"/>
+      <c r="H48" s="60"/>
+      <c r="I48" s="60"/>
+      <c r="J48" s="61"/>
+      <c r="K48" s="59"/>
+      <c r="L48" s="61"/>
+      <c r="M48" s="59"/>
+      <c r="N48" s="60"/>
+      <c r="O48" s="60"/>
+      <c r="P48" s="61"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="41"/>
+      <c r="B49" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="62" t="s">
+        <v>164</v>
+      </c>
+      <c r="D49" s="63"/>
+      <c r="E49" s="64"/>
+      <c r="F49" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="G49" s="62" t="s">
+        <v>166</v>
+      </c>
+      <c r="H49" s="64"/>
+      <c r="I49" s="62" t="s">
+        <v>167</v>
+      </c>
+      <c r="J49" s="64"/>
+      <c r="K49" s="65"/>
+      <c r="L49" s="66"/>
+      <c r="M49" s="65"/>
+      <c r="N49" s="67"/>
+      <c r="O49" s="67"/>
+      <c r="P49" s="66"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="41"/>
+      <c r="B50" s="17">
+        <v>1</v>
+      </c>
+      <c r="C50" s="56" t="s">
+        <v>279</v>
+      </c>
+      <c r="D50" s="57"/>
+      <c r="E50" s="58"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="56" t="s">
+        <v>280</v>
+      </c>
+      <c r="H50" s="58"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="53"/>
+      <c r="L50" s="55"/>
+      <c r="M50" s="53"/>
+      <c r="N50" s="54"/>
+      <c r="O50" s="54"/>
+      <c r="P50" s="55"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="41"/>
+      <c r="B51" s="56"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="58"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="56"/>
+      <c r="H51" s="58"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="53"/>
+      <c r="L51" s="55"/>
+      <c r="M51" s="53"/>
+      <c r="N51" s="54"/>
+      <c r="O51" s="54"/>
+      <c r="P51" s="55"/>
+    </row>
+  </sheetData>
+  <mergeCells count="84">
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:P51"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="M49:P49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="M47:P47"/>
+    <mergeCell ref="B48:J48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="M48:P48"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:P45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="M46:P46"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:P43"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M44:P44"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="B40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="M38:P38"/>
     <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A34:P34"/>
-    <mergeCell ref="A35:A42"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="A35:P35"/>
+    <mergeCell ref="A36:A43"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="H36:J36"/>
@@ -5657,28 +7303,525 @@
     <mergeCell ref="M36:P36"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="D37:F37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="B39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="M42:P42"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D971C53-5EB2-44ED-B622-DF1D16FE21C3}">
+  <dimension ref="A1:P17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="4.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="9" max="9" width="4.77734375" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" customWidth="1"/>
+    <col min="12" max="12" width="7.44140625" customWidth="1"/>
+    <col min="13" max="13" width="9" customWidth="1"/>
+    <col min="14" max="14" width="6.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="48"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="46" t="s">
+        <v>292</v>
+      </c>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="48" t="s">
+        <v>291</v>
+      </c>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="31"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="32"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="5">
+        <v>50</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>2</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="5">
+        <v>1000</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>3</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>4</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="5">
+        <v>50</v>
+      </c>
+      <c r="L11" s="5"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>5</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>6</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="5">
+        <v>50</v>
+      </c>
+      <c r="L13" s="5"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>7</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>8</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="5">
+        <v>200</v>
+      </c>
+      <c r="L15" s="5"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nop-job/model/nop-job.orm.xlsx
+++ b/nop-job/model/nop-job.orm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-job\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1720FCD4-700F-474D-A26D-0EE4867A806E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D4299B-7757-40E3-A122-7F609FA5A4FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="6" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="4" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="305">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1004,10 +1004,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>失败次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BOOLEAN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1076,14 +1072,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EXEC_FAIL_COUNT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Exec Fail Count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EXEC_BEGIN_TIME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1265,6 +1253,42 @@
   </si>
   <si>
     <t>nop_job_instance_his</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONSECUTIVE_FAIL_COUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Consecutive Fail Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOTAL_FAIL_COUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Fail Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续失败次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总失败次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max Consecutive Failed Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大允许连续失败次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAX_CONSEC_FAILED_COUNT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2339,7 +2363,7 @@
     </row>
     <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B11" s="1" t="b">
         <v>1</v>
@@ -2930,7 +2954,7 @@
         <v>195</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F9" s="24"/>
       <c r="G9" s="25"/>
@@ -2944,10 +2968,10 @@
         <v>40</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F10" s="24"/>
       <c r="G10" s="25"/>
@@ -2961,10 +2985,10 @@
         <v>50</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F11" s="24"/>
       <c r="G11" s="25"/>
@@ -2978,10 +3002,10 @@
         <v>60</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F12" s="24"/>
       <c r="G12" s="25"/>
@@ -2995,10 +3019,10 @@
         <v>70</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F13" s="24"/>
       <c r="G13" s="25"/>
@@ -3012,10 +3036,10 @@
         <v>80</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="25"/>
@@ -3029,10 +3053,10 @@
         <v>90</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F15" s="24"/>
       <c r="G15" s="25"/>
@@ -3046,10 +3070,10 @@
         <v>100</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="25"/>
@@ -3251,10 +3275,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49753E9A-158A-4EB9-A449-F2590B12608A}">
-  <dimension ref="A1:P37"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W35" sqref="W35"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="S34" sqref="S34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3949,21 +3973,19 @@
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="6" t="s">
-        <v>129</v>
+        <v>304</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="6" t="s">
-        <v>130</v>
+        <v>302</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>81</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="H24" s="6"/>
       <c r="I24" s="5"/>
       <c r="J24" s="6" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
@@ -3979,29 +4001,27 @@
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="H25" s="6"/>
+        <v>131</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="I25" s="5"/>
       <c r="J25" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K25" s="5">
-        <v>4000</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
-      <c r="O25" s="5" t="s">
-        <v>146</v>
-      </c>
+      <c r="O25" s="5"/>
       <c r="P25" s="1"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
@@ -4011,27 +4031,29 @@
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="6" t="s">
-        <v>283</v>
+        <v>132</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="6" t="s">
-        <v>284</v>
+        <v>133</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>285</v>
+        <v>134</v>
       </c>
       <c r="H26" s="6"/>
-      <c r="I26" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="I26" s="5"/>
       <c r="J26" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="K26" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="K26" s="5">
+        <v>4000</v>
+      </c>
       <c r="L26" s="5"/>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
-      <c r="O26" s="5"/>
+      <c r="O26" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="P26" s="1"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
@@ -4041,23 +4063,21 @@
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="6" t="s">
-        <v>27</v>
+        <v>280</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="6" t="s">
-        <v>28</v>
+        <v>281</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>76</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="H27" s="6"/>
       <c r="I27" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>49</v>
+        <v>283</v>
       </c>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
@@ -4073,27 +4093,25 @@
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K28" s="5">
-        <v>50</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
@@ -4107,25 +4125,27 @@
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K29" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="K29" s="5">
+        <v>50</v>
+      </c>
       <c r="L29" s="5"/>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
@@ -4139,27 +4159,25 @@
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K30" s="5">
-        <v>50</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
@@ -4173,25 +4191,27 @@
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K31" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="K31" s="5">
+        <v>50</v>
+      </c>
       <c r="L31" s="5"/>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
@@ -4205,25 +4225,25 @@
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="I32" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="J32" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K32" s="5">
-        <v>200</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
@@ -4231,49 +4251,81 @@
       <c r="P32" s="1"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
+      <c r="A33" s="5">
+        <v>26</v>
+      </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
+      <c r="D33" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
+      <c r="F33" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
+      <c r="J33" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K33" s="5">
+        <v>200</v>
+      </c>
       <c r="L33" s="5"/>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
       <c r="O33" s="5"/>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B36" s="9" t="s">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="1"/>
+    </row>
+    <row r="35" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B37" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C36" s="9"/>
-    </row>
-    <row r="37" spans="1:16" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="43" t="s">
+      <c r="C37" s="9"/>
+    </row>
+    <row r="38" spans="1:16" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="44"/>
-      <c r="K37" s="44"/>
-      <c r="L37" s="44"/>
-      <c r="M37" s="44"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="44"/>
+      <c r="M38" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B37:M37"/>
+    <mergeCell ref="B38:M38"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="I1:M1"/>
@@ -4295,10 +4347,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0AB38BD-C79B-46B9-BBEB-F87063D2EF8F}">
-  <dimension ref="A1:P51"/>
+  <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M45" sqref="M45:P45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z37" sqref="Z37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4507,14 +4559,14 @@
         <v>75</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="6" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="5" t="s">
@@ -4594,7 +4646,7 @@
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="P10" s="1"/>
     </row>
@@ -4628,7 +4680,7 @@
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="5" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="P11" s="1"/>
     </row>
@@ -4662,7 +4714,7 @@
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="P12" s="1"/>
     </row>
@@ -4758,7 +4810,7 @@
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="5" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="P15" s="1"/>
     </row>
@@ -4799,14 +4851,14 @@
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="6" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="5"/>
@@ -4818,7 +4870,7 @@
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
       <c r="O17" s="5" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="P17" s="1"/>
     </row>
@@ -4829,14 +4881,14 @@
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="5"/>
@@ -4848,7 +4900,7 @@
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="P18" s="1"/>
     </row>
@@ -4871,7 +4923,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="5"/>
       <c r="J19" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
@@ -4887,19 +4939,19 @@
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="5"/>
       <c r="J20" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
@@ -4915,14 +4967,14 @@
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="6" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="6" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="5"/>
@@ -4945,14 +4997,14 @@
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="6" t="s">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="6" t="s">
-        <v>252</v>
+        <v>297</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>233</v>
+        <v>300</v>
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="5"/>
@@ -4964,7 +5016,7 @@
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
       <c r="O22" s="5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="P22" s="1"/>
     </row>
@@ -4975,23 +5027,21 @@
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="6" t="s">
-        <v>176</v>
+        <v>298</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="6" t="s">
-        <v>177</v>
+        <v>299</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>178</v>
+        <v>301</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="5"/>
       <c r="J23" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K23" s="5">
-        <v>200</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
@@ -5005,14 +5055,14 @@
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="6" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="6" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="5"/>
@@ -5020,7 +5070,7 @@
         <v>21</v>
       </c>
       <c r="K24" s="5">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="L24" s="5"/>
       <c r="M24" s="6"/>
@@ -5035,14 +5085,14 @@
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="6" t="s">
-        <v>277</v>
+        <v>173</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="6" t="s">
-        <v>278</v>
+        <v>174</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>282</v>
+        <v>175</v>
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="5"/>
@@ -5050,7 +5100,7 @@
         <v>21</v>
       </c>
       <c r="K25" s="5">
-        <v>32</v>
+        <v>500</v>
       </c>
       <c r="L25" s="5"/>
       <c r="M25" s="6"/>
@@ -5065,23 +5115,23 @@
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="6" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="6" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="H26" s="6"/>
-      <c r="I26" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="I26" s="5"/>
       <c r="J26" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="K26" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="K26" s="5">
+        <v>32</v>
+      </c>
       <c r="L26" s="5"/>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
@@ -5095,23 +5145,21 @@
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="6" t="s">
-        <v>27</v>
+        <v>280</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="6" t="s">
-        <v>28</v>
+        <v>281</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>76</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="H27" s="6"/>
       <c r="I27" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>49</v>
+        <v>283</v>
       </c>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
@@ -5127,27 +5175,25 @@
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K28" s="5">
-        <v>50</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
@@ -5161,25 +5207,27 @@
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K29" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="K29" s="5">
+        <v>50</v>
+      </c>
       <c r="L29" s="5"/>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
@@ -5193,27 +5241,25 @@
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K30" s="5">
-        <v>50</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
@@ -5227,25 +5273,27 @@
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K31" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="K31" s="5">
+        <v>50</v>
+      </c>
       <c r="L31" s="5"/>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
@@ -5259,25 +5307,25 @@
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="I32" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="J32" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K32" s="5">
-        <v>200</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
@@ -5285,99 +5333,101 @@
       <c r="P32" s="1"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
+      <c r="A33" s="5">
+        <v>26</v>
+      </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
+      <c r="D33" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
+      <c r="F33" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
+      <c r="J33" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K33" s="5">
+        <v>200</v>
+      </c>
       <c r="L33" s="5"/>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
       <c r="O33" s="5"/>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="70" t="s">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="1"/>
+    </row>
+    <row r="35" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="70" t="s">
         <v>154</v>
       </c>
-      <c r="B35" s="71"/>
-      <c r="C35" s="71"/>
-      <c r="D35" s="71"/>
-      <c r="E35" s="71"/>
-      <c r="F35" s="71"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="71"/>
-      <c r="I35" s="71"/>
-      <c r="J35" s="71"/>
-      <c r="K35" s="71"/>
-      <c r="L35" s="71"/>
-      <c r="M35" s="71"/>
-      <c r="N35" s="71"/>
-      <c r="O35" s="71"/>
-      <c r="P35" s="72"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="40">
+      <c r="B36" s="71"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="71"/>
+      <c r="I36" s="71"/>
+      <c r="J36" s="71"/>
+      <c r="K36" s="71"/>
+      <c r="L36" s="71"/>
+      <c r="M36" s="71"/>
+      <c r="N36" s="71"/>
+      <c r="O36" s="71"/>
+      <c r="P36" s="72"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="40">
         <v>1</v>
       </c>
-      <c r="B36" s="68" t="s">
+      <c r="B37" s="68" t="s">
         <v>155</v>
-      </c>
-      <c r="C36" s="69"/>
-      <c r="D36" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="H36" s="31"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="L36" s="64"/>
-      <c r="M36" s="48" t="s">
-        <v>215</v>
-      </c>
-      <c r="N36" s="49"/>
-      <c r="O36" s="49"/>
-      <c r="P36" s="50"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="41"/>
-      <c r="B37" s="68" t="s">
-        <v>4</v>
       </c>
       <c r="C37" s="69"/>
       <c r="D37" s="31" t="s">
-        <v>172</v>
+        <v>213</v>
       </c>
       <c r="E37" s="33"/>
       <c r="F37" s="33"/>
       <c r="G37" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H37" s="31" t="s">
-        <v>214</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="H37" s="31"/>
       <c r="I37" s="33"/>
       <c r="J37" s="32"/>
       <c r="K37" s="62" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L37" s="64"/>
       <c r="M37" s="48" t="s">
-        <v>159</v>
+        <v>215</v>
       </c>
       <c r="N37" s="49"/>
       <c r="O37" s="49"/>
@@ -5386,21 +5436,29 @@
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="41"/>
       <c r="B38" s="68" t="s">
-        <v>160</v>
+        <v>4</v>
       </c>
       <c r="C38" s="69"/>
-      <c r="D38" s="31"/>
+      <c r="D38" s="31" t="s">
+        <v>172</v>
+      </c>
       <c r="E38" s="33"/>
       <c r="F38" s="33"/>
-      <c r="G38" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="H38" s="33"/>
+      <c r="G38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H38" s="31" t="s">
+        <v>214</v>
+      </c>
       <c r="I38" s="33"/>
       <c r="J38" s="32"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="48"/>
+      <c r="K38" s="62" t="s">
+        <v>158</v>
+      </c>
+      <c r="L38" s="64"/>
+      <c r="M38" s="48" t="s">
+        <v>159</v>
+      </c>
       <c r="N38" s="49"/>
       <c r="O38" s="49"/>
       <c r="P38" s="50"/>
@@ -5408,107 +5466,111 @@
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="41"/>
       <c r="B39" s="68" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="C39" s="69"/>
       <c r="D39" s="31"/>
       <c r="E39" s="33"/>
       <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
+      <c r="G39" s="15" t="s">
+        <v>161</v>
+      </c>
       <c r="H39" s="33"/>
       <c r="I39" s="33"/>
       <c r="J39" s="32"/>
-      <c r="K39" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="L39" s="64"/>
-      <c r="M39" s="48" t="s">
-        <v>162</v>
-      </c>
+      <c r="K39" s="13"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="48"/>
       <c r="N39" s="49"/>
       <c r="O39" s="49"/>
       <c r="P39" s="50"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="41"/>
-      <c r="B40" s="59" t="s">
-        <v>163</v>
-      </c>
-      <c r="C40" s="60"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="60"/>
-      <c r="H40" s="60"/>
-      <c r="I40" s="60"/>
-      <c r="J40" s="61"/>
-      <c r="K40" s="59"/>
-      <c r="L40" s="61"/>
-      <c r="M40" s="59"/>
-      <c r="N40" s="60"/>
-      <c r="O40" s="60"/>
-      <c r="P40" s="61"/>
+      <c r="B40" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="69"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="L40" s="64"/>
+      <c r="M40" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="N40" s="49"/>
+      <c r="O40" s="49"/>
+      <c r="P40" s="50"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="41"/>
-      <c r="B41" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" s="62" t="s">
-        <v>164</v>
-      </c>
-      <c r="D41" s="63"/>
-      <c r="E41" s="64"/>
-      <c r="F41" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="G41" s="62" t="s">
-        <v>166</v>
-      </c>
-      <c r="H41" s="64"/>
-      <c r="I41" s="62" t="s">
-        <v>167</v>
-      </c>
-      <c r="J41" s="64"/>
-      <c r="K41" s="65"/>
-      <c r="L41" s="66"/>
-      <c r="M41" s="65"/>
-      <c r="N41" s="67"/>
-      <c r="O41" s="67"/>
-      <c r="P41" s="66"/>
+      <c r="B41" s="59" t="s">
+        <v>163</v>
+      </c>
+      <c r="C41" s="60"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="60"/>
+      <c r="H41" s="60"/>
+      <c r="I41" s="60"/>
+      <c r="J41" s="61"/>
+      <c r="K41" s="59"/>
+      <c r="L41" s="61"/>
+      <c r="M41" s="59"/>
+      <c r="N41" s="60"/>
+      <c r="O41" s="60"/>
+      <c r="P41" s="61"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="41"/>
-      <c r="B42" s="17">
-        <v>1</v>
-      </c>
-      <c r="C42" s="56" t="s">
-        <v>216</v>
-      </c>
-      <c r="D42" s="57"/>
-      <c r="E42" s="58"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="56" t="s">
-        <v>168</v>
-      </c>
-      <c r="H42" s="58"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="53"/>
-      <c r="L42" s="55"/>
-      <c r="M42" s="53"/>
-      <c r="N42" s="54"/>
-      <c r="O42" s="54"/>
-      <c r="P42" s="55"/>
+      <c r="B42" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="62" t="s">
+        <v>164</v>
+      </c>
+      <c r="D42" s="63"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="G42" s="62" t="s">
+        <v>166</v>
+      </c>
+      <c r="H42" s="64"/>
+      <c r="I42" s="62" t="s">
+        <v>167</v>
+      </c>
+      <c r="J42" s="64"/>
+      <c r="K42" s="65"/>
+      <c r="L42" s="66"/>
+      <c r="M42" s="65"/>
+      <c r="N42" s="67"/>
+      <c r="O42" s="67"/>
+      <c r="P42" s="66"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="41"/>
-      <c r="B43" s="56"/>
-      <c r="C43" s="57"/>
+      <c r="B43" s="17">
+        <v>1</v>
+      </c>
+      <c r="C43" s="56" t="s">
+        <v>216</v>
+      </c>
       <c r="D43" s="57"/>
       <c r="E43" s="58"/>
       <c r="F43" s="18"/>
-      <c r="G43" s="56"/>
+      <c r="G43" s="56" t="s">
+        <v>168</v>
+      </c>
       <c r="H43" s="58"/>
       <c r="I43" s="18"/>
       <c r="J43" s="19"/>
@@ -5520,60 +5582,48 @@
       <c r="P43" s="55"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="40">
+      <c r="A44" s="41"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="53"/>
+      <c r="L44" s="55"/>
+      <c r="M44" s="53"/>
+      <c r="N44" s="54"/>
+      <c r="O44" s="54"/>
+      <c r="P44" s="55"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="40">
         <v>2</v>
       </c>
-      <c r="B44" s="68" t="s">
+      <c r="B45" s="68" t="s">
         <v>155</v>
-      </c>
-      <c r="C44" s="69"/>
-      <c r="D44" s="31" t="s">
-        <v>257</v>
-      </c>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="H44" s="31"/>
-      <c r="I44" s="33"/>
-      <c r="J44" s="32"/>
-      <c r="K44" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="L44" s="64"/>
-      <c r="M44" s="48" t="s">
-        <v>289</v>
-      </c>
-      <c r="N44" s="49"/>
-      <c r="O44" s="49"/>
-      <c r="P44" s="50"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="41"/>
-      <c r="B45" s="68" t="s">
-        <v>4</v>
       </c>
       <c r="C45" s="69"/>
       <c r="D45" s="31" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E45" s="33"/>
       <c r="F45" s="33"/>
       <c r="G45" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="31" t="s">
-        <v>259</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="H45" s="31"/>
       <c r="I45" s="33"/>
       <c r="J45" s="32"/>
       <c r="K45" s="62" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L45" s="64"/>
       <c r="M45" s="48" t="s">
-        <v>159</v>
+        <v>286</v>
       </c>
       <c r="N45" s="49"/>
       <c r="O45" s="49"/>
@@ -5582,21 +5632,29 @@
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="41"/>
       <c r="B46" s="68" t="s">
-        <v>160</v>
+        <v>4</v>
       </c>
       <c r="C46" s="69"/>
-      <c r="D46" s="31"/>
+      <c r="D46" s="31" t="s">
+        <v>255</v>
+      </c>
       <c r="E46" s="33"/>
       <c r="F46" s="33"/>
-      <c r="G46" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="H46" s="33"/>
+      <c r="G46" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H46" s="31" t="s">
+        <v>256</v>
+      </c>
       <c r="I46" s="33"/>
       <c r="J46" s="32"/>
-      <c r="K46" s="13"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="48"/>
+      <c r="K46" s="62" t="s">
+        <v>158</v>
+      </c>
+      <c r="L46" s="64"/>
+      <c r="M46" s="48" t="s">
+        <v>159</v>
+      </c>
       <c r="N46" s="49"/>
       <c r="O46" s="49"/>
       <c r="P46" s="50"/>
@@ -5604,107 +5662,111 @@
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="41"/>
       <c r="B47" s="68" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="C47" s="69"/>
       <c r="D47" s="31"/>
       <c r="E47" s="33"/>
       <c r="F47" s="33"/>
-      <c r="G47" s="33"/>
+      <c r="G47" s="15" t="s">
+        <v>161</v>
+      </c>
       <c r="H47" s="33"/>
       <c r="I47" s="33"/>
       <c r="J47" s="32"/>
-      <c r="K47" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="L47" s="64"/>
-      <c r="M47" s="48" t="s">
-        <v>162</v>
-      </c>
+      <c r="K47" s="13"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="48"/>
       <c r="N47" s="49"/>
       <c r="O47" s="49"/>
       <c r="P47" s="50"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="41"/>
-      <c r="B48" s="59" t="s">
-        <v>163</v>
-      </c>
-      <c r="C48" s="60"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60"/>
-      <c r="G48" s="60"/>
-      <c r="H48" s="60"/>
-      <c r="I48" s="60"/>
-      <c r="J48" s="61"/>
-      <c r="K48" s="59"/>
-      <c r="L48" s="61"/>
-      <c r="M48" s="59"/>
-      <c r="N48" s="60"/>
-      <c r="O48" s="60"/>
-      <c r="P48" s="61"/>
+      <c r="B48" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="69"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="33"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="L48" s="64"/>
+      <c r="M48" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="N48" s="49"/>
+      <c r="O48" s="49"/>
+      <c r="P48" s="50"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="41"/>
-      <c r="B49" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" s="62" t="s">
-        <v>164</v>
-      </c>
-      <c r="D49" s="63"/>
-      <c r="E49" s="64"/>
-      <c r="F49" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="G49" s="62" t="s">
-        <v>166</v>
-      </c>
-      <c r="H49" s="64"/>
-      <c r="I49" s="62" t="s">
-        <v>167</v>
-      </c>
-      <c r="J49" s="64"/>
-      <c r="K49" s="65"/>
-      <c r="L49" s="66"/>
-      <c r="M49" s="65"/>
-      <c r="N49" s="67"/>
-      <c r="O49" s="67"/>
-      <c r="P49" s="66"/>
+      <c r="B49" s="59" t="s">
+        <v>163</v>
+      </c>
+      <c r="C49" s="60"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="60"/>
+      <c r="I49" s="60"/>
+      <c r="J49" s="61"/>
+      <c r="K49" s="59"/>
+      <c r="L49" s="61"/>
+      <c r="M49" s="59"/>
+      <c r="N49" s="60"/>
+      <c r="O49" s="60"/>
+      <c r="P49" s="61"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="41"/>
-      <c r="B50" s="17">
-        <v>1</v>
-      </c>
-      <c r="C50" s="56" t="s">
-        <v>279</v>
-      </c>
-      <c r="D50" s="57"/>
-      <c r="E50" s="58"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="56" t="s">
-        <v>280</v>
-      </c>
-      <c r="H50" s="58"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="19"/>
-      <c r="K50" s="53"/>
-      <c r="L50" s="55"/>
-      <c r="M50" s="53"/>
-      <c r="N50" s="54"/>
-      <c r="O50" s="54"/>
-      <c r="P50" s="55"/>
+      <c r="B50" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="62" t="s">
+        <v>164</v>
+      </c>
+      <c r="D50" s="63"/>
+      <c r="E50" s="64"/>
+      <c r="F50" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="G50" s="62" t="s">
+        <v>166</v>
+      </c>
+      <c r="H50" s="64"/>
+      <c r="I50" s="62" t="s">
+        <v>167</v>
+      </c>
+      <c r="J50" s="64"/>
+      <c r="K50" s="65"/>
+      <c r="L50" s="66"/>
+      <c r="M50" s="65"/>
+      <c r="N50" s="67"/>
+      <c r="O50" s="67"/>
+      <c r="P50" s="66"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="41"/>
-      <c r="B51" s="56"/>
-      <c r="C51" s="57"/>
+      <c r="B51" s="17">
+        <v>1</v>
+      </c>
+      <c r="C51" s="56" t="s">
+        <v>276</v>
+      </c>
       <c r="D51" s="57"/>
       <c r="E51" s="58"/>
       <c r="F51" s="18"/>
-      <c r="G51" s="56"/>
+      <c r="G51" s="56" t="s">
+        <v>277</v>
+      </c>
       <c r="H51" s="58"/>
       <c r="I51" s="18"/>
       <c r="J51" s="19"/>
@@ -5715,37 +5777,50 @@
       <c r="O51" s="54"/>
       <c r="P51" s="55"/>
     </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" s="41"/>
+      <c r="B52" s="56"/>
+      <c r="C52" s="57"/>
+      <c r="D52" s="57"/>
+      <c r="E52" s="58"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="56"/>
+      <c r="H52" s="58"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="53"/>
+      <c r="L52" s="55"/>
+      <c r="M52" s="53"/>
+      <c r="N52" s="54"/>
+      <c r="O52" s="54"/>
+      <c r="P52" s="55"/>
+    </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="B40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M44:P44"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="C43:E43"/>
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="K43:L43"/>
     <mergeCell ref="M43:P43"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:P41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="M42:P42"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:J39"/>
-    <mergeCell ref="K39:L39"/>
     <mergeCell ref="M39:P39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:P40"/>
     <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A35:P35"/>
-    <mergeCell ref="A36:A43"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="A36:P36"/>
+    <mergeCell ref="A37:A44"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="D37:F37"/>
     <mergeCell ref="H37:J37"/>
@@ -5754,6 +5829,11 @@
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="D38:F38"/>
     <mergeCell ref="H38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="H39:J39"/>
     <mergeCell ref="A5:P5"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:G1"/>
@@ -5766,41 +5846,41 @@
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:M4"/>
-    <mergeCell ref="A44:A51"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="B48:J48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M44:P44"/>
+    <mergeCell ref="A45:A52"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D45:F45"/>
     <mergeCell ref="H45:J45"/>
     <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M45:P45"/>
-    <mergeCell ref="M46:P46"/>
     <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:J47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="M47:P47"/>
-    <mergeCell ref="M48:P48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="B49:J49"/>
     <mergeCell ref="K49:L49"/>
-    <mergeCell ref="M49:P49"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="C51:E51"/>
     <mergeCell ref="G51:H51"/>
     <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M45:P45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="M46:P46"/>
+    <mergeCell ref="M47:P47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:J48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="M48:P48"/>
+    <mergeCell ref="M49:P49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:P50"/>
     <mergeCell ref="M51:P51"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M52:P52"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5809,10 +5889,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3EFCAF-3FBE-4CF9-B875-566E4D9E69F9}">
-  <dimension ref="A1:P51"/>
+  <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H45" sqref="H45:J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5839,7 +5919,7 @@
       <c r="B1" s="51"/>
       <c r="C1" s="51"/>
       <c r="D1" s="46" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E1" s="47"/>
       <c r="F1" s="47"/>
@@ -5863,7 +5943,7 @@
       <c r="B2" s="51"/>
       <c r="C2" s="51"/>
       <c r="D2" s="46" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E2" s="47"/>
       <c r="F2" s="47"/>
@@ -5872,7 +5952,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="48" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="J2" s="49"/>
       <c r="K2" s="49"/>
@@ -6021,14 +6101,14 @@
         <v>75</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="6" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="5" t="s">
@@ -6108,7 +6188,7 @@
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="P10" s="1"/>
     </row>
@@ -6142,7 +6222,7 @@
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="5" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="P11" s="1"/>
     </row>
@@ -6176,7 +6256,7 @@
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="P12" s="1"/>
     </row>
@@ -6272,7 +6352,7 @@
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="5" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="P15" s="1"/>
     </row>
@@ -6313,14 +6393,14 @@
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="6" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="5"/>
@@ -6332,7 +6412,7 @@
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
       <c r="O17" s="5" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="P17" s="1"/>
     </row>
@@ -6343,14 +6423,14 @@
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="5"/>
@@ -6362,7 +6442,7 @@
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="P18" s="1"/>
     </row>
@@ -6385,7 +6465,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="5"/>
       <c r="J19" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
@@ -6401,19 +6481,19 @@
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="5"/>
       <c r="J20" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
@@ -6429,14 +6509,14 @@
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="6" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="6" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="5"/>
@@ -6459,14 +6539,14 @@
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="6" t="s">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="6" t="s">
-        <v>252</v>
+        <v>297</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>233</v>
+        <v>300</v>
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="5"/>
@@ -6478,7 +6558,7 @@
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
       <c r="O22" s="5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="P22" s="1"/>
     </row>
@@ -6489,23 +6569,21 @@
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="6" t="s">
-        <v>176</v>
+        <v>298</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="6" t="s">
-        <v>177</v>
+        <v>299</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>178</v>
+        <v>301</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="5"/>
       <c r="J23" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K23" s="5">
-        <v>200</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
@@ -6519,14 +6597,14 @@
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="6" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="6" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="5"/>
@@ -6534,7 +6612,7 @@
         <v>21</v>
       </c>
       <c r="K24" s="5">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="L24" s="5"/>
       <c r="M24" s="6"/>
@@ -6549,14 +6627,14 @@
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="6" t="s">
-        <v>277</v>
+        <v>173</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="6" t="s">
-        <v>278</v>
+        <v>174</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>282</v>
+        <v>175</v>
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="5"/>
@@ -6564,7 +6642,7 @@
         <v>21</v>
       </c>
       <c r="K25" s="5">
-        <v>32</v>
+        <v>500</v>
       </c>
       <c r="L25" s="5"/>
       <c r="M25" s="6"/>
@@ -6579,23 +6657,23 @@
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="6" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="6" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="H26" s="6"/>
-      <c r="I26" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="I26" s="5"/>
       <c r="J26" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="K26" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="K26" s="5">
+        <v>32</v>
+      </c>
       <c r="L26" s="5"/>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
@@ -6609,23 +6687,21 @@
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="6" t="s">
-        <v>27</v>
+        <v>280</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="6" t="s">
-        <v>28</v>
+        <v>281</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>76</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="H27" s="6"/>
       <c r="I27" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>49</v>
+        <v>283</v>
       </c>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
@@ -6641,27 +6717,25 @@
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K28" s="5">
-        <v>50</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
@@ -6675,25 +6749,27 @@
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K29" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="K29" s="5">
+        <v>50</v>
+      </c>
       <c r="L29" s="5"/>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
@@ -6707,27 +6783,25 @@
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K30" s="5">
-        <v>50</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
@@ -6741,25 +6815,27 @@
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K31" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="K31" s="5">
+        <v>50</v>
+      </c>
       <c r="L31" s="5"/>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
@@ -6773,25 +6849,25 @@
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="I32" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="J32" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K32" s="5">
-        <v>200</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
@@ -6799,99 +6875,101 @@
       <c r="P32" s="1"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
+      <c r="A33" s="5">
+        <v>26</v>
+      </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
+      <c r="D33" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
+      <c r="F33" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
+      <c r="J33" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K33" s="5">
+        <v>200</v>
+      </c>
       <c r="L33" s="5"/>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
       <c r="O33" s="5"/>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="70" t="s">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="1"/>
+    </row>
+    <row r="35" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="70" t="s">
         <v>154</v>
       </c>
-      <c r="B35" s="71"/>
-      <c r="C35" s="71"/>
-      <c r="D35" s="71"/>
-      <c r="E35" s="71"/>
-      <c r="F35" s="71"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="71"/>
-      <c r="I35" s="71"/>
-      <c r="J35" s="71"/>
-      <c r="K35" s="71"/>
-      <c r="L35" s="71"/>
-      <c r="M35" s="71"/>
-      <c r="N35" s="71"/>
-      <c r="O35" s="71"/>
-      <c r="P35" s="72"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="40">
+      <c r="B36" s="71"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="71"/>
+      <c r="I36" s="71"/>
+      <c r="J36" s="71"/>
+      <c r="K36" s="71"/>
+      <c r="L36" s="71"/>
+      <c r="M36" s="71"/>
+      <c r="N36" s="71"/>
+      <c r="O36" s="71"/>
+      <c r="P36" s="72"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="40">
         <v>1</v>
       </c>
-      <c r="B36" s="68" t="s">
+      <c r="B37" s="68" t="s">
         <v>155</v>
-      </c>
-      <c r="C36" s="69"/>
-      <c r="D36" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="H36" s="31"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="L36" s="64"/>
-      <c r="M36" s="48" t="s">
-        <v>215</v>
-      </c>
-      <c r="N36" s="49"/>
-      <c r="O36" s="49"/>
-      <c r="P36" s="50"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="41"/>
-      <c r="B37" s="68" t="s">
-        <v>4</v>
       </c>
       <c r="C37" s="69"/>
       <c r="D37" s="31" t="s">
-        <v>172</v>
+        <v>213</v>
       </c>
       <c r="E37" s="33"/>
       <c r="F37" s="33"/>
       <c r="G37" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H37" s="31" t="s">
-        <v>214</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="H37" s="31"/>
       <c r="I37" s="33"/>
       <c r="J37" s="32"/>
       <c r="K37" s="62" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L37" s="64"/>
       <c r="M37" s="48" t="s">
-        <v>159</v>
+        <v>215</v>
       </c>
       <c r="N37" s="49"/>
       <c r="O37" s="49"/>
@@ -6900,21 +6978,29 @@
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="41"/>
       <c r="B38" s="68" t="s">
-        <v>160</v>
+        <v>4</v>
       </c>
       <c r="C38" s="69"/>
-      <c r="D38" s="31"/>
+      <c r="D38" s="31" t="s">
+        <v>172</v>
+      </c>
       <c r="E38" s="33"/>
       <c r="F38" s="33"/>
-      <c r="G38" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="H38" s="33"/>
+      <c r="G38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H38" s="31" t="s">
+        <v>214</v>
+      </c>
       <c r="I38" s="33"/>
       <c r="J38" s="32"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="48"/>
+      <c r="K38" s="62" t="s">
+        <v>158</v>
+      </c>
+      <c r="L38" s="64"/>
+      <c r="M38" s="48" t="s">
+        <v>159</v>
+      </c>
       <c r="N38" s="49"/>
       <c r="O38" s="49"/>
       <c r="P38" s="50"/>
@@ -6922,107 +7008,111 @@
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="41"/>
       <c r="B39" s="68" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="C39" s="69"/>
       <c r="D39" s="31"/>
       <c r="E39" s="33"/>
       <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
+      <c r="G39" s="15" t="s">
+        <v>161</v>
+      </c>
       <c r="H39" s="33"/>
       <c r="I39" s="33"/>
       <c r="J39" s="32"/>
-      <c r="K39" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="L39" s="64"/>
-      <c r="M39" s="48" t="s">
-        <v>162</v>
-      </c>
+      <c r="K39" s="13"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="48"/>
       <c r="N39" s="49"/>
       <c r="O39" s="49"/>
       <c r="P39" s="50"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="41"/>
-      <c r="B40" s="59" t="s">
-        <v>163</v>
-      </c>
-      <c r="C40" s="60"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="60"/>
-      <c r="H40" s="60"/>
-      <c r="I40" s="60"/>
-      <c r="J40" s="61"/>
-      <c r="K40" s="59"/>
-      <c r="L40" s="61"/>
-      <c r="M40" s="59"/>
-      <c r="N40" s="60"/>
-      <c r="O40" s="60"/>
-      <c r="P40" s="61"/>
+      <c r="B40" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="69"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="L40" s="64"/>
+      <c r="M40" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="N40" s="49"/>
+      <c r="O40" s="49"/>
+      <c r="P40" s="50"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="41"/>
-      <c r="B41" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" s="62" t="s">
-        <v>164</v>
-      </c>
-      <c r="D41" s="63"/>
-      <c r="E41" s="64"/>
-      <c r="F41" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="G41" s="62" t="s">
-        <v>166</v>
-      </c>
-      <c r="H41" s="64"/>
-      <c r="I41" s="62" t="s">
-        <v>167</v>
-      </c>
-      <c r="J41" s="64"/>
-      <c r="K41" s="65"/>
-      <c r="L41" s="66"/>
-      <c r="M41" s="65"/>
-      <c r="N41" s="67"/>
-      <c r="O41" s="67"/>
-      <c r="P41" s="66"/>
+      <c r="B41" s="59" t="s">
+        <v>163</v>
+      </c>
+      <c r="C41" s="60"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="60"/>
+      <c r="H41" s="60"/>
+      <c r="I41" s="60"/>
+      <c r="J41" s="61"/>
+      <c r="K41" s="59"/>
+      <c r="L41" s="61"/>
+      <c r="M41" s="59"/>
+      <c r="N41" s="60"/>
+      <c r="O41" s="60"/>
+      <c r="P41" s="61"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="41"/>
-      <c r="B42" s="17">
-        <v>1</v>
-      </c>
-      <c r="C42" s="56" t="s">
-        <v>216</v>
-      </c>
-      <c r="D42" s="57"/>
-      <c r="E42" s="58"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="56" t="s">
-        <v>168</v>
-      </c>
-      <c r="H42" s="58"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="53"/>
-      <c r="L42" s="55"/>
-      <c r="M42" s="53"/>
-      <c r="N42" s="54"/>
-      <c r="O42" s="54"/>
-      <c r="P42" s="55"/>
+      <c r="B42" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="62" t="s">
+        <v>164</v>
+      </c>
+      <c r="D42" s="63"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="G42" s="62" t="s">
+        <v>166</v>
+      </c>
+      <c r="H42" s="64"/>
+      <c r="I42" s="62" t="s">
+        <v>167</v>
+      </c>
+      <c r="J42" s="64"/>
+      <c r="K42" s="65"/>
+      <c r="L42" s="66"/>
+      <c r="M42" s="65"/>
+      <c r="N42" s="67"/>
+      <c r="O42" s="67"/>
+      <c r="P42" s="66"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="41"/>
-      <c r="B43" s="56"/>
-      <c r="C43" s="57"/>
+      <c r="B43" s="17">
+        <v>1</v>
+      </c>
+      <c r="C43" s="56" t="s">
+        <v>216</v>
+      </c>
       <c r="D43" s="57"/>
       <c r="E43" s="58"/>
       <c r="F43" s="18"/>
-      <c r="G43" s="56"/>
+      <c r="G43" s="56" t="s">
+        <v>168</v>
+      </c>
       <c r="H43" s="58"/>
       <c r="I43" s="18"/>
       <c r="J43" s="19"/>
@@ -7034,60 +7124,48 @@
       <c r="P43" s="55"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="40">
+      <c r="A44" s="41"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="53"/>
+      <c r="L44" s="55"/>
+      <c r="M44" s="53"/>
+      <c r="N44" s="54"/>
+      <c r="O44" s="54"/>
+      <c r="P44" s="55"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="40">
         <v>2</v>
       </c>
-      <c r="B44" s="68" t="s">
+      <c r="B45" s="68" t="s">
         <v>155</v>
-      </c>
-      <c r="C44" s="69"/>
-      <c r="D44" s="31" t="s">
-        <v>257</v>
-      </c>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="H44" s="31"/>
-      <c r="I44" s="33"/>
-      <c r="J44" s="32"/>
-      <c r="K44" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="L44" s="64"/>
-      <c r="M44" s="48" t="s">
-        <v>289</v>
-      </c>
-      <c r="N44" s="49"/>
-      <c r="O44" s="49"/>
-      <c r="P44" s="50"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="41"/>
-      <c r="B45" s="68" t="s">
-        <v>4</v>
       </c>
       <c r="C45" s="69"/>
       <c r="D45" s="31" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E45" s="33"/>
       <c r="F45" s="33"/>
       <c r="G45" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="31" t="s">
-        <v>259</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="H45" s="31"/>
       <c r="I45" s="33"/>
       <c r="J45" s="32"/>
       <c r="K45" s="62" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L45" s="64"/>
       <c r="M45" s="48" t="s">
-        <v>159</v>
+        <v>286</v>
       </c>
       <c r="N45" s="49"/>
       <c r="O45" s="49"/>
@@ -7096,21 +7174,29 @@
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="41"/>
       <c r="B46" s="68" t="s">
-        <v>160</v>
+        <v>4</v>
       </c>
       <c r="C46" s="69"/>
-      <c r="D46" s="31"/>
+      <c r="D46" s="31" t="s">
+        <v>255</v>
+      </c>
       <c r="E46" s="33"/>
       <c r="F46" s="33"/>
-      <c r="G46" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="H46" s="33"/>
+      <c r="G46" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H46" s="31" t="s">
+        <v>256</v>
+      </c>
       <c r="I46" s="33"/>
       <c r="J46" s="32"/>
-      <c r="K46" s="13"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="48"/>
+      <c r="K46" s="62" t="s">
+        <v>158</v>
+      </c>
+      <c r="L46" s="64"/>
+      <c r="M46" s="48" t="s">
+        <v>159</v>
+      </c>
       <c r="N46" s="49"/>
       <c r="O46" s="49"/>
       <c r="P46" s="50"/>
@@ -7118,107 +7204,111 @@
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="41"/>
       <c r="B47" s="68" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="C47" s="69"/>
       <c r="D47" s="31"/>
       <c r="E47" s="33"/>
       <c r="F47" s="33"/>
-      <c r="G47" s="33"/>
+      <c r="G47" s="15" t="s">
+        <v>161</v>
+      </c>
       <c r="H47" s="33"/>
       <c r="I47" s="33"/>
       <c r="J47" s="32"/>
-      <c r="K47" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="L47" s="64"/>
-      <c r="M47" s="48" t="s">
-        <v>162</v>
-      </c>
+      <c r="K47" s="13"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="48"/>
       <c r="N47" s="49"/>
       <c r="O47" s="49"/>
       <c r="P47" s="50"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="41"/>
-      <c r="B48" s="59" t="s">
-        <v>163</v>
-      </c>
-      <c r="C48" s="60"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60"/>
-      <c r="G48" s="60"/>
-      <c r="H48" s="60"/>
-      <c r="I48" s="60"/>
-      <c r="J48" s="61"/>
-      <c r="K48" s="59"/>
-      <c r="L48" s="61"/>
-      <c r="M48" s="59"/>
-      <c r="N48" s="60"/>
-      <c r="O48" s="60"/>
-      <c r="P48" s="61"/>
+      <c r="B48" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="69"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="33"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="L48" s="64"/>
+      <c r="M48" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="N48" s="49"/>
+      <c r="O48" s="49"/>
+      <c r="P48" s="50"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="41"/>
-      <c r="B49" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" s="62" t="s">
-        <v>164</v>
-      </c>
-      <c r="D49" s="63"/>
-      <c r="E49" s="64"/>
-      <c r="F49" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="G49" s="62" t="s">
-        <v>166</v>
-      </c>
-      <c r="H49" s="64"/>
-      <c r="I49" s="62" t="s">
-        <v>167</v>
-      </c>
-      <c r="J49" s="64"/>
-      <c r="K49" s="65"/>
-      <c r="L49" s="66"/>
-      <c r="M49" s="65"/>
-      <c r="N49" s="67"/>
-      <c r="O49" s="67"/>
-      <c r="P49" s="66"/>
+      <c r="B49" s="59" t="s">
+        <v>163</v>
+      </c>
+      <c r="C49" s="60"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="60"/>
+      <c r="I49" s="60"/>
+      <c r="J49" s="61"/>
+      <c r="K49" s="59"/>
+      <c r="L49" s="61"/>
+      <c r="M49" s="59"/>
+      <c r="N49" s="60"/>
+      <c r="O49" s="60"/>
+      <c r="P49" s="61"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="41"/>
-      <c r="B50" s="17">
-        <v>1</v>
-      </c>
-      <c r="C50" s="56" t="s">
-        <v>279</v>
-      </c>
-      <c r="D50" s="57"/>
-      <c r="E50" s="58"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="56" t="s">
-        <v>280</v>
-      </c>
-      <c r="H50" s="58"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="19"/>
-      <c r="K50" s="53"/>
-      <c r="L50" s="55"/>
-      <c r="M50" s="53"/>
-      <c r="N50" s="54"/>
-      <c r="O50" s="54"/>
-      <c r="P50" s="55"/>
+      <c r="B50" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="62" t="s">
+        <v>164</v>
+      </c>
+      <c r="D50" s="63"/>
+      <c r="E50" s="64"/>
+      <c r="F50" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="G50" s="62" t="s">
+        <v>166</v>
+      </c>
+      <c r="H50" s="64"/>
+      <c r="I50" s="62" t="s">
+        <v>167</v>
+      </c>
+      <c r="J50" s="64"/>
+      <c r="K50" s="65"/>
+      <c r="L50" s="66"/>
+      <c r="M50" s="65"/>
+      <c r="N50" s="67"/>
+      <c r="O50" s="67"/>
+      <c r="P50" s="66"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="41"/>
-      <c r="B51" s="56"/>
-      <c r="C51" s="57"/>
+      <c r="B51" s="17">
+        <v>1</v>
+      </c>
+      <c r="C51" s="56" t="s">
+        <v>276</v>
+      </c>
       <c r="D51" s="57"/>
       <c r="E51" s="58"/>
       <c r="F51" s="18"/>
-      <c r="G51" s="56"/>
+      <c r="G51" s="56" t="s">
+        <v>277</v>
+      </c>
       <c r="H51" s="58"/>
       <c r="I51" s="18"/>
       <c r="J51" s="19"/>
@@ -7229,85 +7319,98 @@
       <c r="O51" s="54"/>
       <c r="P51" s="55"/>
     </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" s="41"/>
+      <c r="B52" s="56"/>
+      <c r="C52" s="57"/>
+      <c r="D52" s="57"/>
+      <c r="E52" s="58"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="56"/>
+      <c r="H52" s="58"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="53"/>
+      <c r="L52" s="55"/>
+      <c r="M52" s="53"/>
+      <c r="N52" s="54"/>
+      <c r="O52" s="54"/>
+      <c r="P52" s="55"/>
+    </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="B49:J49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="M49:P49"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="C51:E51"/>
     <mergeCell ref="G51:H51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:P51"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="M49:P49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:J47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="M47:P47"/>
-    <mergeCell ref="B48:J48"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="M46:P46"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:J48"/>
     <mergeCell ref="K48:L48"/>
     <mergeCell ref="M48:P48"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="A45:A52"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D45:F45"/>
     <mergeCell ref="H45:J45"/>
     <mergeCell ref="K45:L45"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="M47:P47"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M44:P44"/>
     <mergeCell ref="M45:P45"/>
     <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="M46:P46"/>
-    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="C43:E43"/>
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="K43:L43"/>
     <mergeCell ref="M43:P43"/>
-    <mergeCell ref="A44:A51"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="M44:P44"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="B41:J41"/>
     <mergeCell ref="K41:L41"/>
     <mergeCell ref="M41:P41"/>
     <mergeCell ref="C42:E42"/>
     <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
     <mergeCell ref="K42:L42"/>
-    <mergeCell ref="M42:P42"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="B40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A36:P36"/>
+    <mergeCell ref="A37:A44"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
     <mergeCell ref="H37:J37"/>
     <mergeCell ref="K37:L37"/>
     <mergeCell ref="M37:P37"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="D38:F38"/>
     <mergeCell ref="H38:J38"/>
+    <mergeCell ref="K38:L38"/>
     <mergeCell ref="M38:P38"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A35:P35"/>
-    <mergeCell ref="A36:A43"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="H39:J39"/>
     <mergeCell ref="A5:P5"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:G1"/>
@@ -7315,6 +7418,11 @@
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7326,7 +7434,7 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7353,7 +7461,7 @@
       <c r="B1" s="51"/>
       <c r="C1" s="51"/>
       <c r="D1" s="46" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E1" s="47"/>
       <c r="F1" s="47"/>
@@ -7377,7 +7485,7 @@
       <c r="B2" s="51"/>
       <c r="C2" s="51"/>
       <c r="D2" s="46" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E2" s="47"/>
       <c r="F2" s="47"/>
@@ -7386,7 +7494,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="48" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="J2" s="49"/>
       <c r="K2" s="49"/>
@@ -7535,14 +7643,14 @@
         <v>75</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="6" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="5" t="s">
@@ -7567,14 +7675,14 @@
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="6" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="5" t="s">

--- a/nop-job/model/nop-job.orm.xlsx
+++ b/nop-job/model/nop-job.orm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-job\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D4299B-7757-40E3-A122-7F609FA5A4FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559EFFE4-588C-4E64-A8F9-05AE14DEBCE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="4" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="307">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1289,6 +1289,14 @@
   </si>
   <si>
     <t>MAX_CONSEC_FAILED_COUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已调度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1619,10 +1627,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1658,13 +1669,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1697,13 +1705,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1715,13 +1723,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2802,26 +2810,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4CD64A5-AB42-4D35-A396-5536329A6B7E}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="27">
+      <c r="A1" s="41">
         <v>1</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="31" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="E1" s="32"/>
+      <c r="E1" s="33"/>
       <c r="F1" s="20" t="s">
         <v>180</v>
       </c>
@@ -2830,15 +2838,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29" t="s">
+      <c r="A2" s="42"/>
+      <c r="B2" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="31" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="E2" s="32"/>
+      <c r="E2" s="33"/>
       <c r="F2" s="20" t="s">
         <v>183</v>
       </c>
@@ -2847,29 +2855,29 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29" t="s">
+      <c r="A3" s="42"/>
+      <c r="B3" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="32"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="33"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="34" t="s">
+      <c r="A4" s="42"/>
+      <c r="B4" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="37"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="22" t="s">
         <v>186</v>
       </c>
@@ -2890,7 +2898,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="21">
         <v>1</v>
       </c>
@@ -2907,7 +2915,7 @@
       <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="21">
         <v>2</v>
       </c>
@@ -2924,7 +2932,7 @@
       <c r="G7" s="24"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="21">
         <v>3</v>
       </c>
@@ -2943,24 +2951,24 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="21">
         <v>4</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="21">
         <v>30</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>195</v>
+        <v>306</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>237</v>
+        <v>305</v>
       </c>
       <c r="F9" s="24"/>
       <c r="G9" s="25"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="21">
         <v>5</v>
       </c>
@@ -2968,16 +2976,16 @@
         <v>40</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>240</v>
+        <v>195</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F10" s="24"/>
       <c r="G10" s="25"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="21">
         <v>6</v>
       </c>
@@ -2985,16 +2993,16 @@
         <v>50</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F11" s="24"/>
       <c r="G11" s="25"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="21">
         <v>7</v>
       </c>
@@ -3002,16 +3010,16 @@
         <v>60</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="F12" s="24"/>
       <c r="G12" s="25"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="21">
         <v>8</v>
       </c>
@@ -3019,16 +3027,16 @@
         <v>70</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="F13" s="24"/>
       <c r="G13" s="25"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="21">
         <v>9</v>
       </c>
@@ -3036,16 +3044,16 @@
         <v>80</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="25"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="21">
         <v>10</v>
       </c>
@@ -3053,16 +3061,16 @@
         <v>90</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F15" s="24"/>
       <c r="G15" s="25"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="21">
         <v>11</v>
       </c>
@@ -3070,195 +3078,203 @@
         <v>100</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="25"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="39"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="21">
+        <v>12</v>
+      </c>
+      <c r="C17" s="26">
+        <v>110</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="F17" s="24"/>
+      <c r="G17" s="25"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="40">
+      <c r="A18" s="42"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="40"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="27">
         <v>2</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B19" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="31" t="s">
+      <c r="C19" s="31"/>
+      <c r="D19" s="32" t="s">
         <v>209</v>
       </c>
-      <c r="E18" s="32"/>
-      <c r="F18" s="20" t="s">
+      <c r="E19" s="33"/>
+      <c r="F19" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G19" s="12" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
-      <c r="B19" s="29" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="28"/>
+      <c r="B20" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="31" t="s">
+      <c r="C20" s="31"/>
+      <c r="D20" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="E19" s="32"/>
-      <c r="F19" s="20" t="s">
+      <c r="E20" s="33"/>
+      <c r="F20" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="G19" s="21" t="s">
+      <c r="G20" s="21" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
-      <c r="B20" s="29" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="28"/>
+      <c r="B21" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="32"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="41"/>
-      <c r="B21" s="34" t="s">
+      <c r="C21" s="31"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="33"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="28"/>
+      <c r="B22" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="36"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="41"/>
-      <c r="B22" s="22" t="s">
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="37"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="28"/>
+      <c r="B23" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C23" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D23" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E23" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="F22" s="23" t="s">
+      <c r="F23" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="G22" s="23" t="s">
+      <c r="G23" s="23" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
-      <c r="B23" s="21">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="28"/>
+      <c r="B24" s="21">
         <v>1</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C24" s="21">
         <v>0</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D24" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="E23" s="24" t="s">
+      <c r="E24" s="24" t="s">
         <v>198</v>
-      </c>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="41"/>
-      <c r="B24" s="21">
-        <v>2</v>
-      </c>
-      <c r="C24" s="21">
-        <v>1</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>200</v>
       </c>
       <c r="F24" s="24"/>
       <c r="G24" s="24"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="41"/>
+      <c r="A25" s="28"/>
       <c r="B25" s="21">
+        <v>2</v>
+      </c>
+      <c r="C25" s="21">
+        <v>1</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="28"/>
+      <c r="B26" s="21">
         <v>3</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C26" s="21">
         <v>2</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D26" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="E25" s="24" t="s">
+      <c r="E26" s="24" t="s">
         <v>202</v>
-      </c>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
-      <c r="B26" s="21">
-        <v>4</v>
-      </c>
-      <c r="C26" s="21">
-        <v>3</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>204</v>
       </c>
       <c r="F26" s="24"/>
       <c r="G26" s="24" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="28"/>
+      <c r="B27" s="21">
+        <v>4</v>
+      </c>
+      <c r="C27" s="21">
+        <v>3</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="42"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="39"/>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="29"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A18:A27"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="A1:A17"/>
+    <mergeCell ref="A1:A18"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="B2:C2"/>
@@ -3266,7 +3282,16 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="A19:A28"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B28:G28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3277,7 +3302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49753E9A-158A-4EB9-A449-F2590B12608A}">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="S34" sqref="S34"/>
     </sheetView>
   </sheetViews>
@@ -3389,22 +3414,22 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="32"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="33"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="45" t="s">
@@ -4461,22 +4486,22 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="32"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="33"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="45" t="s">
@@ -5404,24 +5429,24 @@
       <c r="P36" s="72"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="40">
+      <c r="A37" s="27">
         <v>1</v>
       </c>
       <c r="B37" s="68" t="s">
         <v>155</v>
       </c>
       <c r="C37" s="69"/>
-      <c r="D37" s="31" t="s">
+      <c r="D37" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
       <c r="G37" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="H37" s="31"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="33"/>
       <c r="K37" s="62" t="s">
         <v>157</v>
       </c>
@@ -5434,24 +5459,24 @@
       <c r="P37" s="50"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="41"/>
+      <c r="A38" s="28"/>
       <c r="B38" s="68" t="s">
         <v>4</v>
       </c>
       <c r="C38" s="69"/>
-      <c r="D38" s="31" t="s">
+      <c r="D38" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
       <c r="G38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H38" s="31" t="s">
+      <c r="H38" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="I38" s="33"/>
-      <c r="J38" s="32"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="33"/>
       <c r="K38" s="62" t="s">
         <v>158</v>
       </c>
@@ -5464,20 +5489,20 @@
       <c r="P38" s="50"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="41"/>
+      <c r="A39" s="28"/>
       <c r="B39" s="68" t="s">
         <v>160</v>
       </c>
       <c r="C39" s="69"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
       <c r="G39" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="32"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="33"/>
       <c r="K39" s="13"/>
       <c r="L39" s="14"/>
       <c r="M39" s="48"/>
@@ -5486,18 +5511,18 @@
       <c r="P39" s="50"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="41"/>
+      <c r="A40" s="28"/>
       <c r="B40" s="68" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="69"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="33"/>
       <c r="K40" s="62" t="s">
         <v>9</v>
       </c>
@@ -5510,27 +5535,27 @@
       <c r="P40" s="50"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="41"/>
-      <c r="B41" s="59" t="s">
+      <c r="A41" s="28"/>
+      <c r="B41" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="C41" s="60"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="60"/>
-      <c r="F41" s="60"/>
-      <c r="G41" s="60"/>
-      <c r="H41" s="60"/>
-      <c r="I41" s="60"/>
-      <c r="J41" s="61"/>
-      <c r="K41" s="59"/>
-      <c r="L41" s="61"/>
-      <c r="M41" s="59"/>
-      <c r="N41" s="60"/>
-      <c r="O41" s="60"/>
-      <c r="P41" s="61"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="54"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="55"/>
+      <c r="K41" s="53"/>
+      <c r="L41" s="55"/>
+      <c r="M41" s="53"/>
+      <c r="N41" s="54"/>
+      <c r="O41" s="54"/>
+      <c r="P41" s="55"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="41"/>
+      <c r="A42" s="28"/>
       <c r="B42" s="16" t="s">
         <v>15</v>
       </c>
@@ -5558,7 +5583,7 @@
       <c r="P42" s="66"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="41"/>
+      <c r="A43" s="28"/>
       <c r="B43" s="17">
         <v>1</v>
       </c>
@@ -5574,15 +5599,15 @@
       <c r="H43" s="58"/>
       <c r="I43" s="18"/>
       <c r="J43" s="19"/>
-      <c r="K43" s="53"/>
-      <c r="L43" s="55"/>
-      <c r="M43" s="53"/>
-      <c r="N43" s="54"/>
-      <c r="O43" s="54"/>
-      <c r="P43" s="55"/>
+      <c r="K43" s="59"/>
+      <c r="L43" s="60"/>
+      <c r="M43" s="59"/>
+      <c r="N43" s="61"/>
+      <c r="O43" s="61"/>
+      <c r="P43" s="60"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="41"/>
+      <c r="A44" s="28"/>
       <c r="B44" s="56"/>
       <c r="C44" s="57"/>
       <c r="D44" s="57"/>
@@ -5592,32 +5617,32 @@
       <c r="H44" s="58"/>
       <c r="I44" s="18"/>
       <c r="J44" s="19"/>
-      <c r="K44" s="53"/>
-      <c r="L44" s="55"/>
-      <c r="M44" s="53"/>
-      <c r="N44" s="54"/>
-      <c r="O44" s="54"/>
-      <c r="P44" s="55"/>
+      <c r="K44" s="59"/>
+      <c r="L44" s="60"/>
+      <c r="M44" s="59"/>
+      <c r="N44" s="61"/>
+      <c r="O44" s="61"/>
+      <c r="P44" s="60"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="40">
+      <c r="A45" s="27">
         <v>2</v>
       </c>
       <c r="B45" s="68" t="s">
         <v>155</v>
       </c>
       <c r="C45" s="69"/>
-      <c r="D45" s="31" t="s">
+      <c r="D45" s="32" t="s">
         <v>254</v>
       </c>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
       <c r="G45" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="H45" s="31"/>
-      <c r="I45" s="33"/>
-      <c r="J45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="33"/>
       <c r="K45" s="62" t="s">
         <v>157</v>
       </c>
@@ -5630,24 +5655,24 @@
       <c r="P45" s="50"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="41"/>
+      <c r="A46" s="28"/>
       <c r="B46" s="68" t="s">
         <v>4</v>
       </c>
       <c r="C46" s="69"/>
-      <c r="D46" s="31" t="s">
+      <c r="D46" s="32" t="s">
         <v>255</v>
       </c>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
       <c r="G46" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H46" s="31" t="s">
+      <c r="H46" s="32" t="s">
         <v>256</v>
       </c>
-      <c r="I46" s="33"/>
-      <c r="J46" s="32"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="33"/>
       <c r="K46" s="62" t="s">
         <v>158</v>
       </c>
@@ -5660,20 +5685,20 @@
       <c r="P46" s="50"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="41"/>
+      <c r="A47" s="28"/>
       <c r="B47" s="68" t="s">
         <v>160</v>
       </c>
       <c r="C47" s="69"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="33"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
       <c r="G47" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="H47" s="33"/>
-      <c r="I47" s="33"/>
-      <c r="J47" s="32"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="33"/>
       <c r="K47" s="13"/>
       <c r="L47" s="14"/>
       <c r="M47" s="48"/>
@@ -5682,18 +5707,18 @@
       <c r="P47" s="50"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="41"/>
+      <c r="A48" s="28"/>
       <c r="B48" s="68" t="s">
         <v>10</v>
       </c>
       <c r="C48" s="69"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="33"/>
-      <c r="I48" s="33"/>
-      <c r="J48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="33"/>
       <c r="K48" s="62" t="s">
         <v>9</v>
       </c>
@@ -5706,27 +5731,27 @@
       <c r="P48" s="50"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="41"/>
-      <c r="B49" s="59" t="s">
+      <c r="A49" s="28"/>
+      <c r="B49" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="C49" s="60"/>
-      <c r="D49" s="60"/>
-      <c r="E49" s="60"/>
-      <c r="F49" s="60"/>
-      <c r="G49" s="60"/>
-      <c r="H49" s="60"/>
-      <c r="I49" s="60"/>
-      <c r="J49" s="61"/>
-      <c r="K49" s="59"/>
-      <c r="L49" s="61"/>
-      <c r="M49" s="59"/>
-      <c r="N49" s="60"/>
-      <c r="O49" s="60"/>
-      <c r="P49" s="61"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="54"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="55"/>
+      <c r="K49" s="53"/>
+      <c r="L49" s="55"/>
+      <c r="M49" s="53"/>
+      <c r="N49" s="54"/>
+      <c r="O49" s="54"/>
+      <c r="P49" s="55"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="41"/>
+      <c r="A50" s="28"/>
       <c r="B50" s="16" t="s">
         <v>15</v>
       </c>
@@ -5754,7 +5779,7 @@
       <c r="P50" s="66"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="41"/>
+      <c r="A51" s="28"/>
       <c r="B51" s="17">
         <v>1</v>
       </c>
@@ -5770,15 +5795,15 @@
       <c r="H51" s="58"/>
       <c r="I51" s="18"/>
       <c r="J51" s="19"/>
-      <c r="K51" s="53"/>
-      <c r="L51" s="55"/>
-      <c r="M51" s="53"/>
-      <c r="N51" s="54"/>
-      <c r="O51" s="54"/>
-      <c r="P51" s="55"/>
+      <c r="K51" s="59"/>
+      <c r="L51" s="60"/>
+      <c r="M51" s="59"/>
+      <c r="N51" s="61"/>
+      <c r="O51" s="61"/>
+      <c r="P51" s="60"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="41"/>
+      <c r="A52" s="28"/>
       <c r="B52" s="56"/>
       <c r="C52" s="57"/>
       <c r="D52" s="57"/>
@@ -5788,15 +5813,83 @@
       <c r="H52" s="58"/>
       <c r="I52" s="18"/>
       <c r="J52" s="19"/>
-      <c r="K52" s="53"/>
-      <c r="L52" s="55"/>
-      <c r="M52" s="53"/>
-      <c r="N52" s="54"/>
-      <c r="O52" s="54"/>
-      <c r="P52" s="55"/>
+      <c r="K52" s="59"/>
+      <c r="L52" s="60"/>
+      <c r="M52" s="59"/>
+      <c r="N52" s="61"/>
+      <c r="O52" s="61"/>
+      <c r="P52" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="84">
+    <mergeCell ref="M51:P51"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="M49:P49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="M47:P47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:J48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="M48:P48"/>
+    <mergeCell ref="M45:P45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="M46:P46"/>
+    <mergeCell ref="A45:A52"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="B49:J49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A36:P36"/>
+    <mergeCell ref="A37:A44"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:P40"/>
     <mergeCell ref="B41:J41"/>
     <mergeCell ref="K41:L41"/>
     <mergeCell ref="M41:P41"/>
@@ -5813,74 +5906,6 @@
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="K43:L43"/>
     <mergeCell ref="M43:P43"/>
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A36:P36"/>
-    <mergeCell ref="A37:A44"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
-    <mergeCell ref="A45:A52"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="B49:J49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M45:P45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="M46:P46"/>
-    <mergeCell ref="M47:P47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:J48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="M48:P48"/>
-    <mergeCell ref="M49:P49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="M51:P51"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="M52:P52"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6003,22 +6028,22 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="32"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="33"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="45" t="s">
@@ -6946,24 +6971,24 @@
       <c r="P36" s="72"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="40">
+      <c r="A37" s="27">
         <v>1</v>
       </c>
       <c r="B37" s="68" t="s">
         <v>155</v>
       </c>
       <c r="C37" s="69"/>
-      <c r="D37" s="31" t="s">
+      <c r="D37" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
       <c r="G37" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="H37" s="31"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="33"/>
       <c r="K37" s="62" t="s">
         <v>157</v>
       </c>
@@ -6976,24 +7001,24 @@
       <c r="P37" s="50"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="41"/>
+      <c r="A38" s="28"/>
       <c r="B38" s="68" t="s">
         <v>4</v>
       </c>
       <c r="C38" s="69"/>
-      <c r="D38" s="31" t="s">
+      <c r="D38" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
       <c r="G38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H38" s="31" t="s">
+      <c r="H38" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="I38" s="33"/>
-      <c r="J38" s="32"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="33"/>
       <c r="K38" s="62" t="s">
         <v>158</v>
       </c>
@@ -7006,20 +7031,20 @@
       <c r="P38" s="50"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="41"/>
+      <c r="A39" s="28"/>
       <c r="B39" s="68" t="s">
         <v>160</v>
       </c>
       <c r="C39" s="69"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
       <c r="G39" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="32"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="33"/>
       <c r="K39" s="13"/>
       <c r="L39" s="14"/>
       <c r="M39" s="48"/>
@@ -7028,18 +7053,18 @@
       <c r="P39" s="50"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="41"/>
+      <c r="A40" s="28"/>
       <c r="B40" s="68" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="69"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="33"/>
       <c r="K40" s="62" t="s">
         <v>9</v>
       </c>
@@ -7052,27 +7077,27 @@
       <c r="P40" s="50"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="41"/>
-      <c r="B41" s="59" t="s">
+      <c r="A41" s="28"/>
+      <c r="B41" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="C41" s="60"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="60"/>
-      <c r="F41" s="60"/>
-      <c r="G41" s="60"/>
-      <c r="H41" s="60"/>
-      <c r="I41" s="60"/>
-      <c r="J41" s="61"/>
-      <c r="K41" s="59"/>
-      <c r="L41" s="61"/>
-      <c r="M41" s="59"/>
-      <c r="N41" s="60"/>
-      <c r="O41" s="60"/>
-      <c r="P41" s="61"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="54"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="55"/>
+      <c r="K41" s="53"/>
+      <c r="L41" s="55"/>
+      <c r="M41" s="53"/>
+      <c r="N41" s="54"/>
+      <c r="O41" s="54"/>
+      <c r="P41" s="55"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="41"/>
+      <c r="A42" s="28"/>
       <c r="B42" s="16" t="s">
         <v>15</v>
       </c>
@@ -7100,7 +7125,7 @@
       <c r="P42" s="66"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="41"/>
+      <c r="A43" s="28"/>
       <c r="B43" s="17">
         <v>1</v>
       </c>
@@ -7116,15 +7141,15 @@
       <c r="H43" s="58"/>
       <c r="I43" s="18"/>
       <c r="J43" s="19"/>
-      <c r="K43" s="53"/>
-      <c r="L43" s="55"/>
-      <c r="M43" s="53"/>
-      <c r="N43" s="54"/>
-      <c r="O43" s="54"/>
-      <c r="P43" s="55"/>
+      <c r="K43" s="59"/>
+      <c r="L43" s="60"/>
+      <c r="M43" s="59"/>
+      <c r="N43" s="61"/>
+      <c r="O43" s="61"/>
+      <c r="P43" s="60"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="41"/>
+      <c r="A44" s="28"/>
       <c r="B44" s="56"/>
       <c r="C44" s="57"/>
       <c r="D44" s="57"/>
@@ -7134,32 +7159,32 @@
       <c r="H44" s="58"/>
       <c r="I44" s="18"/>
       <c r="J44" s="19"/>
-      <c r="K44" s="53"/>
-      <c r="L44" s="55"/>
-      <c r="M44" s="53"/>
-      <c r="N44" s="54"/>
-      <c r="O44" s="54"/>
-      <c r="P44" s="55"/>
+      <c r="K44" s="59"/>
+      <c r="L44" s="60"/>
+      <c r="M44" s="59"/>
+      <c r="N44" s="61"/>
+      <c r="O44" s="61"/>
+      <c r="P44" s="60"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="40">
+      <c r="A45" s="27">
         <v>2</v>
       </c>
       <c r="B45" s="68" t="s">
         <v>155</v>
       </c>
       <c r="C45" s="69"/>
-      <c r="D45" s="31" t="s">
+      <c r="D45" s="32" t="s">
         <v>254</v>
       </c>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
       <c r="G45" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="H45" s="31"/>
-      <c r="I45" s="33"/>
-      <c r="J45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="33"/>
       <c r="K45" s="62" t="s">
         <v>157</v>
       </c>
@@ -7172,24 +7197,24 @@
       <c r="P45" s="50"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="41"/>
+      <c r="A46" s="28"/>
       <c r="B46" s="68" t="s">
         <v>4</v>
       </c>
       <c r="C46" s="69"/>
-      <c r="D46" s="31" t="s">
+      <c r="D46" s="32" t="s">
         <v>255</v>
       </c>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
       <c r="G46" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H46" s="31" t="s">
+      <c r="H46" s="32" t="s">
         <v>256</v>
       </c>
-      <c r="I46" s="33"/>
-      <c r="J46" s="32"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="33"/>
       <c r="K46" s="62" t="s">
         <v>158</v>
       </c>
@@ -7202,20 +7227,20 @@
       <c r="P46" s="50"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="41"/>
+      <c r="A47" s="28"/>
       <c r="B47" s="68" t="s">
         <v>160</v>
       </c>
       <c r="C47" s="69"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="33"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
       <c r="G47" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="H47" s="33"/>
-      <c r="I47" s="33"/>
-      <c r="J47" s="32"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="33"/>
       <c r="K47" s="13"/>
       <c r="L47" s="14"/>
       <c r="M47" s="48"/>
@@ -7224,18 +7249,18 @@
       <c r="P47" s="50"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="41"/>
+      <c r="A48" s="28"/>
       <c r="B48" s="68" t="s">
         <v>10</v>
       </c>
       <c r="C48" s="69"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="33"/>
-      <c r="I48" s="33"/>
-      <c r="J48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="33"/>
       <c r="K48" s="62" t="s">
         <v>9</v>
       </c>
@@ -7248,27 +7273,27 @@
       <c r="P48" s="50"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="41"/>
-      <c r="B49" s="59" t="s">
+      <c r="A49" s="28"/>
+      <c r="B49" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="C49" s="60"/>
-      <c r="D49" s="60"/>
-      <c r="E49" s="60"/>
-      <c r="F49" s="60"/>
-      <c r="G49" s="60"/>
-      <c r="H49" s="60"/>
-      <c r="I49" s="60"/>
-      <c r="J49" s="61"/>
-      <c r="K49" s="59"/>
-      <c r="L49" s="61"/>
-      <c r="M49" s="59"/>
-      <c r="N49" s="60"/>
-      <c r="O49" s="60"/>
-      <c r="P49" s="61"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="54"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="55"/>
+      <c r="K49" s="53"/>
+      <c r="L49" s="55"/>
+      <c r="M49" s="53"/>
+      <c r="N49" s="54"/>
+      <c r="O49" s="54"/>
+      <c r="P49" s="55"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="41"/>
+      <c r="A50" s="28"/>
       <c r="B50" s="16" t="s">
         <v>15</v>
       </c>
@@ -7296,7 +7321,7 @@
       <c r="P50" s="66"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="41"/>
+      <c r="A51" s="28"/>
       <c r="B51" s="17">
         <v>1</v>
       </c>
@@ -7312,15 +7337,15 @@
       <c r="H51" s="58"/>
       <c r="I51" s="18"/>
       <c r="J51" s="19"/>
-      <c r="K51" s="53"/>
-      <c r="L51" s="55"/>
-      <c r="M51" s="53"/>
-      <c r="N51" s="54"/>
-      <c r="O51" s="54"/>
-      <c r="P51" s="55"/>
+      <c r="K51" s="59"/>
+      <c r="L51" s="60"/>
+      <c r="M51" s="59"/>
+      <c r="N51" s="61"/>
+      <c r="O51" s="61"/>
+      <c r="P51" s="60"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="41"/>
+      <c r="A52" s="28"/>
       <c r="B52" s="56"/>
       <c r="C52" s="57"/>
       <c r="D52" s="57"/>
@@ -7330,15 +7355,83 @@
       <c r="H52" s="58"/>
       <c r="I52" s="18"/>
       <c r="J52" s="19"/>
-      <c r="K52" s="53"/>
-      <c r="L52" s="55"/>
-      <c r="M52" s="53"/>
-      <c r="N52" s="54"/>
-      <c r="O52" s="54"/>
-      <c r="P52" s="55"/>
+      <c r="K52" s="59"/>
+      <c r="L52" s="60"/>
+      <c r="M52" s="59"/>
+      <c r="N52" s="61"/>
+      <c r="O52" s="61"/>
+      <c r="P52" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="84">
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A36:P36"/>
+    <mergeCell ref="A37:A44"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:P43"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="B41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="A45:A52"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="M47:P47"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M44:P44"/>
+    <mergeCell ref="M45:P45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="M46:P46"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:J48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="M48:P48"/>
     <mergeCell ref="B49:J49"/>
     <mergeCell ref="K49:L49"/>
     <mergeCell ref="M49:P49"/>
@@ -7355,74 +7448,6 @@
     <mergeCell ref="G51:H51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:P51"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="M46:P46"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:J48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="M48:P48"/>
-    <mergeCell ref="M42:P42"/>
-    <mergeCell ref="A45:A52"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="M47:P47"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="M44:P44"/>
-    <mergeCell ref="M45:P45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="M43:P43"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="B41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:P41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A36:P36"/>
-    <mergeCell ref="A37:A44"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7545,22 +7570,22 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="32"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="33"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="45" t="s">
@@ -7917,6 +7942,12 @@
     <row r="17" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
@@ -7924,12 +7955,6 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:M4"/>
     <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
